--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_CO.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_CO.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_CO</t>
+  </si>
+  <si>
+    <t>02_taxi_CO</t>
+  </si>
+  <si>
+    <t>03_van_CO</t>
+  </si>
+  <si>
+    <t>04_bus_CO</t>
+  </si>
+  <si>
+    <t>05_LightTruck_CO</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_CO</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_CO</t>
+  </si>
+  <si>
+    <t>Total_CO (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1302 +397,1423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_CO</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_CO</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_CO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_CO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_CO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_CO</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_CO (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>844.1825673705006</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.4298128227125039</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>1.944247876301616</v>
+      </c>
+      <c r="D2">
         <v>36.59866674717286</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>17.92424744111368</v>
+      </c>
+      <c r="F2">
         <v>12.84849152969417</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>155.2786315632525</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>4.741351207130157</v>
       </c>
-      <c r="H2" t="n">
-        <v>1054.079521240463</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>1073.518203735166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>735.0617673134489</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.9824293090571518</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>4.443995145832265</v>
+      </c>
+      <c r="D3">
         <v>18.09824179805252</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>12.85134722193057</v>
+      </c>
+      <c r="F3">
         <v>15.34819805298097</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>124.7944830354974</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>4.10917104617947</v>
       </c>
-      <c r="H3" t="n">
-        <v>898.3942905552162</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>914.7072036139219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>784.896463402496</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.9517283931491157</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>4.305120297525006</v>
+      </c>
+      <c r="D4">
         <v>31.77246893435886</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>13.86592726576719</v>
+      </c>
+      <c r="F4">
         <v>12.7485032687627</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>134.3207794504208</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>5.057441287605501</v>
       </c>
-      <c r="H4" t="n">
-        <v>969.7473847367928</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>986.9667039069359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>723.8919216383173</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.660069692022774</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>2.985809238606053</v>
+      </c>
+      <c r="D5">
         <v>24.9353553662057</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>14.20412061371274</v>
+      </c>
+      <c r="F5">
         <v>10.74873805013325</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>127.6523719599744</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>5.689621448556188</v>
       </c>
-      <c r="H5" t="n">
-        <v>893.5780781552097</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>910.1079383155056</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>748.3796602337973</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.752172439746882</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>3.402433783527827</v>
+      </c>
+      <c r="D6">
         <v>38.20739935144419</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>14.20412061371274</v>
+      </c>
+      <c r="F6">
         <v>13.04846805155712</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>112.4102976960969</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>5.373531368080844</v>
       </c>
-      <c r="H6" t="n">
-        <v>918.1715291407234</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>935.025911098217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>771.1489610331035</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.7061210658848278</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>3.194121511066941</v>
+      </c>
+      <c r="D7">
         <v>37.80521620037639</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>11.83676717809394</v>
+      </c>
+      <c r="F7">
         <v>13.49841522574874</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>130.5102608844514</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>6.637891689982219</v>
       </c>
-      <c r="H7" t="n">
-        <v>960.3068660995473</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>974.6316337228233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>817.9763909788463</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.7368219817928638</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>3.332996359374198</v>
+      </c>
+      <c r="D8">
         <v>38.60958250251205</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>10.14580043836624</v>
+      </c>
+      <c r="F8">
         <v>13.64839761714595</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>74.30511203640299</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>7.270071850932908</v>
       </c>
-      <c r="H8" t="n">
-        <v>952.5463769676331</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>965.2883517835807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>957.1698524689442</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.6293687761147378</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>2.846934390298794</v>
+      </c>
+      <c r="D9">
         <v>45.44669607066523</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>14.20412061371274</v>
+      </c>
+      <c r="F9">
         <v>12.99847392109138</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>74.30511203640299</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>5.689621448556188</v>
       </c>
-      <c r="H9" t="n">
-        <v>1096.239124721775</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>1112.660810949671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1083.90463993678</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.5986678602067019</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>2.708059541991537</v>
+      </c>
+      <c r="D10">
         <v>31.37028578329103</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>24.01172770413342</v>
+      </c>
+      <c r="F10">
         <v>8.798966961969551</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>40.9630745841709</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>9.166612333784972</v>
       </c>
-      <c r="H10" t="n">
-        <v>1174.802247460203</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>1200.923366846122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1092.496828917651</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.5833174022526839</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>2.638622117837908</v>
+      </c>
+      <c r="D11">
         <v>27.75063742368051</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>24.01172770413342</v>
+      </c>
+      <c r="F11">
         <v>7.149160656600261</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>8.573666773431116</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>3.793080965704125</v>
       </c>
-      <c r="H11" t="n">
-        <v>1140.346692139319</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>1166.413724559038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>820.9836571221508</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.2763082431723239</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>1.249873634765325</v>
+      </c>
+      <c r="D12">
         <v>19.70697440232385</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>21.98256761646018</v>
+      </c>
+      <c r="F12">
         <v>4.849430655176399</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>17.14733354686223</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.9482702414260313</v>
       </c>
-      <c r="H12" t="n">
-        <v>863.9119742111118</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>886.8681072191649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>671.9091783040521</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.4144623647584861</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>1.874810452147987</v>
+      </c>
+      <c r="D13">
         <v>13.27204398523851</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>24.68811440002451</v>
+      </c>
+      <c r="F13">
         <v>2.949653697478428</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>16.19470390536989</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.9482702414260313</v>
       </c>
-      <c r="H13" t="n">
-        <v>705.6883124983235</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>731.8367749857375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>491.4732097057773</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.23025686931027</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>1.041561362304437</v>
+      </c>
+      <c r="D14">
         <v>11.26112822989934</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>18.60063413700476</v>
+      </c>
+      <c r="F14">
         <v>2.649688914684011</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>8.573666773431116</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.6321801609506876</v>
       </c>
-      <c r="H14" t="n">
-        <v>514.8201306540528</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>534.2320692840517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>345.4059970309834</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.2763082431723239</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>1.249873634765325</v>
+      </c>
+      <c r="D15">
         <v>5.630564114949669</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>9.469413742475155</v>
+      </c>
+      <c r="F15">
         <v>1.449829783506345</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>18.09996318835458</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.6321801609506876</v>
       </c>
-      <c r="H15" t="n">
-        <v>371.494842521917</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>381.9378216559851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>205.7829260918422</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.3223596170343779</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>1.458185907226212</v>
+      </c>
+      <c r="D16">
         <v>4.826197812814007</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>4.058320175346495</v>
+      </c>
+      <c r="F16">
         <v>1.299847392109138</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>11.43155569790815</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.6321801609506876</v>
       </c>
-      <c r="H16" t="n">
-        <v>224.2950667726585</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>229.4892132381969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>151.6521355123596</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.5065651124825938</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>2.291434997069762</v>
+      </c>
+      <c r="D17">
         <v>0.4021831510678338</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>2.029160087673247</v>
+      </c>
+      <c r="F17">
         <v>2.049759349095179</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>15.24207426387754</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>169.8527173888828</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>173.6667473611432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>88.4995465029634</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.3684109908964319</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>1.666498179687099</v>
+      </c>
+      <c r="D18">
         <v>0.4021831510678338</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>1.352773391782165</v>
+      </c>
+      <c r="F18">
         <v>1.599812174903554</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>14.2894446223852</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>0.3160900804753438</v>
       </c>
-      <c r="H18" t="n">
-        <v>105.4754875226918</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>108.1263481032646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>67.87829294887483</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.5219155704366117</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>2.360872421223391</v>
+      </c>
+      <c r="D19">
         <v>3.21746520854267</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.3381933479455412</v>
+      </c>
+      <c r="F19">
         <v>1.049876739780458</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>19.05259282984693</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>91.7201432974815</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>93.89729349621383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>84.20345201252833</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.2763082431723239</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>1.249873634765325</v>
+      </c>
+      <c r="D20">
         <v>2.413098906407003</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>3.04374013150987</v>
+      </c>
+      <c r="F20">
         <v>1.299847392109138</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>16.19470390536989</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.3160900804753438</v>
       </c>
-      <c r="H20" t="n">
-        <v>104.703500540062</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>108.7208060631649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>124.1571307735749</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.07675228977009001</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.3471871207681457</v>
+      </c>
+      <c r="D21">
         <v>5.22838096388184</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>1.690966739727706</v>
+      </c>
+      <c r="F21">
         <v>2.399718262355331</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>27.62625960327805</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.3160900804753438</v>
       </c>
-      <c r="H21" t="n">
-        <v>159.8043319733355</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>161.7657335440613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>329.08083796733</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.15350457954018</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>0.6943742415362913</v>
+      </c>
+      <c r="D22">
         <v>10.45676192776368</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>12.17496052603948</v>
+      </c>
+      <c r="F22">
         <v>5.149395437970815</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>42.86833386715559</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.6321801609506876</v>
       </c>
-      <c r="H22" t="n">
-        <v>388.341013940711</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>401.0568441287465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>540.0190774476943</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.3377100749883959</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>1.527623331379841</v>
+      </c>
+      <c r="D23">
         <v>20.91352385552736</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>29.76101461920762</v>
+      </c>
+      <c r="F23">
         <v>9.098931744763966</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>57.15777848954078</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>4.10917104617947</v>
       </c>
-      <c r="H23" t="n">
-        <v>631.6361926586942</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>662.5871205342931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>907.7647658289401</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.3377100749883959</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>1.527623331379841</v>
+      </c>
+      <c r="D24">
         <v>34.18556784076589</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>37.53946162195507</v>
+      </c>
+      <c r="F24">
         <v>11.44865587665356</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>108.5997791301275</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>8.21834209235894</v>
       </c>
-      <c r="H24" t="n">
-        <v>1070.554820843834</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>1109.284195722181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1043.950961175733</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.30700915908036</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>1.388748483072583</v>
+      </c>
+      <c r="D25">
         <v>31.37028578329103</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>20.96798757262356</v>
+      </c>
+      <c r="F25">
         <v>9.498884788489846</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>62.87355633849486</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>4.425261126654815</v>
       </c>
-      <c r="H25" t="n">
-        <v>1152.425958371744</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>1174.47568526836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>844.1825673705006</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.4298128227125039</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>1.944247876301616</v>
+      </c>
+      <c r="D26">
         <v>36.59866674717286</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>17.92424744111368</v>
+      </c>
+      <c r="F26">
         <v>12.84849152969417</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>155.2786315632525</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>4.741351207130157</v>
       </c>
-      <c r="H26" t="n">
-        <v>1054.079521240463</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>1073.518203735166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>726.0399688835346</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.8442751874709898</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>3.819058328449602</v>
+      </c>
+      <c r="D27">
         <v>32.97901838756236</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>13.86592726576719</v>
+      </c>
+      <c r="F27">
         <v>15.04823327018656</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>140.0365572993749</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>6.953981770457564</v>
       </c>
-      <c r="H27" t="n">
-        <v>921.902034798587</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>938.7427452053328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>764.7048192974511</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.7828733556549179</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>3.541308631835086</v>
+      </c>
+      <c r="D28">
         <v>31.37028578329103</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>19.61521418084139</v>
+      </c>
+      <c r="F28">
         <v>12.39854435550255</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>162.8996686951913</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>7.270071850932908</v>
       </c>
-      <c r="H28" t="n">
-        <v>979.4262633380238</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>1001.799912795045</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>762.1271626031901</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.7214715238388457</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>3.263558935220569</v>
+      </c>
+      <c r="D29">
         <v>26.54408797047702</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>13.1895405698761</v>
+      </c>
+      <c r="F29">
         <v>11.34866761572209</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>121.9365941110203</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>4.425261126654815</v>
       </c>
-      <c r="H29" t="n">
-        <v>927.1032449509032</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>942.834872932161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>806.3769358546712</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.752172439746882</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>3.402433783527827</v>
+      </c>
+      <c r="D30">
         <v>25.73972166834136</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>15.55689400549489</v>
+      </c>
+      <c r="F30">
         <v>14.1483389218033</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>100.9787419981887</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>6.637891689982219</v>
       </c>
-      <c r="H30" t="n">
-        <v>954.6338025727338</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>972.8409579220095</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>777.5931027687562</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.5986678602067019</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>2.708059541991537</v>
+      </c>
+      <c r="D31">
         <v>36.59866674717286</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>14.20412061371274</v>
+      </c>
+      <c r="F31">
         <v>13.39842696481727</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>96.21559379072698</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>7.586161931408251</v>
       </c>
-      <c r="H31" t="n">
-        <v>931.9906200630883</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>948.3041323585859</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>823.5613138164121</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.6907706079308099</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>3.124684086913311</v>
+      </c>
+      <c r="D32">
         <v>36.19648359610505</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>14.88050730960381</v>
+      </c>
+      <c r="F32">
         <v>13.04846805155712</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>95.26296414923466</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>4.425261126654815</v>
       </c>
-      <c r="H32" t="n">
-        <v>973.1852613478947</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>990.4996821364809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>957.1698524689442</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.6293687761147378</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>2.846934390298794</v>
+      </c>
+      <c r="D33">
         <v>45.44669607066523</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>14.20412061371274</v>
+      </c>
+      <c r="F33">
         <v>12.99847392109138</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>74.30511203640299</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>5.689621448556188</v>
       </c>
-      <c r="H33" t="n">
-        <v>1096.239124721775</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>1112.660810949671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1083.90463993678</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.5986678602067019</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>2.708059541991537</v>
+      </c>
+      <c r="D34">
         <v>31.37028578329103</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>24.01172770413342</v>
+      </c>
+      <c r="F34">
         <v>8.798966961969551</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>40.9630745841709</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>9.166612333784972</v>
       </c>
-      <c r="H34" t="n">
-        <v>1174.802247460203</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>1200.923366846122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1092.496828917651</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.5833174022526839</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>2.638622117837908</v>
+      </c>
+      <c r="D35">
         <v>27.75063742368051</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>24.01172770413342</v>
+      </c>
+      <c r="F35">
         <v>7.149160656600261</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>8.573666773431116</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>3.793080965704125</v>
       </c>
-      <c r="H35" t="n">
-        <v>1140.346692139319</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>1166.413724559038</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>820.9836571221508</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.2763082431723239</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>1.249873634765325</v>
+      </c>
+      <c r="D36">
         <v>19.70697440232385</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>21.98256761646018</v>
+      </c>
+      <c r="F36">
         <v>4.849430655176399</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>17.14733354686223</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.9482702414260313</v>
       </c>
-      <c r="H36" t="n">
-        <v>863.9119742111118</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>886.8681072191649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>671.9091783040521</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.4144623647584861</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>1.874810452147987</v>
+      </c>
+      <c r="D37">
         <v>13.27204398523851</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>24.68811440002451</v>
+      </c>
+      <c r="F37">
         <v>2.949653697478428</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>16.19470390536989</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.9482702414260313</v>
       </c>
-      <c r="H37" t="n">
-        <v>705.6883124983235</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>731.8367749857375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>491.4732097057773</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.23025686931027</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>1.041561362304437</v>
+      </c>
+      <c r="D38">
         <v>11.26112822989934</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>18.60063413700476</v>
+      </c>
+      <c r="F38">
         <v>2.649688914684011</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>8.573666773431116</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.6321801609506876</v>
       </c>
-      <c r="H38" t="n">
-        <v>514.8201306540528</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>534.2320692840517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>345.4059970309834</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.2763082431723239</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>1.249873634765325</v>
+      </c>
+      <c r="D39">
         <v>5.630564114949669</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>9.469413742475155</v>
+      </c>
+      <c r="F39">
         <v>1.449829783506345</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>18.09996318835458</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.6321801609506876</v>
       </c>
-      <c r="H39" t="n">
-        <v>371.494842521917</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>381.9378216559851</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>205.7829260918422</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.3223596170343779</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>1.458185907226212</v>
+      </c>
+      <c r="D40">
         <v>4.826197812814007</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>4.058320175346495</v>
+      </c>
+      <c r="F40">
         <v>1.299847392109138</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>11.43155569790815</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.6321801609506876</v>
       </c>
-      <c r="H40" t="n">
-        <v>224.2950667726585</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>229.4892132381969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>151.6521355123596</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.5065651124825938</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>2.291434997069762</v>
+      </c>
+      <c r="D41">
         <v>0.4021831510678338</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>2.029160087673247</v>
+      </c>
+      <c r="F41">
         <v>2.049759349095179</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>15.24207426387754</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>169.8527173888828</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>173.6667473611432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>88.4995465029634</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.3684109908964319</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>1.666498179687099</v>
+      </c>
+      <c r="D42">
         <v>0.4021831510678338</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>1.352773391782165</v>
+      </c>
+      <c r="F42">
         <v>1.599812174903554</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>14.2894446223852</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>0.3160900804753438</v>
       </c>
-      <c r="H42" t="n">
-        <v>105.4754875226918</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>108.1263481032646</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>67.87829294887483</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.5219155704366117</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>2.360872421223391</v>
+      </c>
+      <c r="D43">
         <v>3.21746520854267</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.3381933479455412</v>
+      </c>
+      <c r="F43">
         <v>1.049876739780458</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>19.05259282984693</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>91.7201432974815</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>93.89729349621383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>84.20345201252833</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.2763082431723239</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>1.249873634765325</v>
+      </c>
+      <c r="D44">
         <v>2.413098906407003</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>3.04374013150987</v>
+      </c>
+      <c r="F44">
         <v>1.299847392109138</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>16.19470390536989</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>0.3160900804753438</v>
       </c>
-      <c r="H44" t="n">
-        <v>104.703500540062</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>108.7208060631649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>124.1571307735749</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.07675228977009001</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0.3471871207681457</v>
+      </c>
+      <c r="D45">
         <v>5.22838096388184</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>1.690966739727706</v>
+      </c>
+      <c r="F45">
         <v>2.399718262355331</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>27.62625960327805</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.3160900804753438</v>
       </c>
-      <c r="H45" t="n">
-        <v>159.8043319733355</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>161.7657335440613</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>329.08083796733</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.15350457954018</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.6943742415362913</v>
+      </c>
+      <c r="D46">
         <v>10.45676192776368</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>12.17496052603948</v>
+      </c>
+      <c r="F46">
         <v>5.149395437970815</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>42.86833386715559</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.6321801609506876</v>
       </c>
-      <c r="H46" t="n">
-        <v>388.341013940711</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>401.0568441287465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>540.0190774476943</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.3377100749883959</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>1.527623331379841</v>
+      </c>
+      <c r="D47">
         <v>20.91352385552736</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>29.76101461920762</v>
+      </c>
+      <c r="F47">
         <v>9.098931744763966</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>57.15777848954078</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>4.10917104617947</v>
       </c>
-      <c r="H47" t="n">
-        <v>631.6361926586942</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>662.5871205342931</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>907.7647658289401</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.3377100749883959</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>1.527623331379841</v>
+      </c>
+      <c r="D48">
         <v>34.18556784076589</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>37.53946162195507</v>
+      </c>
+      <c r="F48">
         <v>11.44865587665356</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>108.5997791301275</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>8.21834209235894</v>
       </c>
-      <c r="H48" t="n">
-        <v>1070.554820843834</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>1109.284195722181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1043.950961175733</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.30700915908036</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>1.388748483072583</v>
+      </c>
+      <c r="D49">
         <v>31.37028578329103</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>20.96798757262356</v>
+      </c>
+      <c r="F49">
         <v>9.498884788489846</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>62.87355633849486</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>4.425261126654815</v>
       </c>
-      <c r="H49" t="n">
-        <v>1152.425958371744</v>
+      <c r="I49">
+        <v>1174.47568526836</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_CO.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>844.1825673705006</v>
+        <v>2596.744095067433</v>
       </c>
       <c r="C2">
-        <v>1.944247876301616</v>
+        <v>5.980595178433489</v>
       </c>
       <c r="D2">
-        <v>36.59866674717286</v>
+        <v>112.5791688154481</v>
       </c>
       <c r="E2">
-        <v>17.92424744111368</v>
+        <v>55.13580296525083</v>
       </c>
       <c r="F2">
-        <v>12.84849152969417</v>
+        <v>39.5225461882988</v>
       </c>
       <c r="G2">
-        <v>155.2786315632525</v>
+        <v>477.644155645138</v>
       </c>
       <c r="H2">
-        <v>4.741351207130157</v>
+        <v>14.58461264854866</v>
       </c>
       <c r="I2">
-        <v>1073.518203735166</v>
+        <v>3302.190976508551</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>735.0617673134489</v>
+        <v>2261.083535196121</v>
       </c>
       <c r="C3">
-        <v>4.443995145832265</v>
+        <v>13.6699318364194</v>
       </c>
       <c r="D3">
-        <v>18.09824179805252</v>
+        <v>55.67101754610069</v>
       </c>
       <c r="E3">
-        <v>12.85134722193057</v>
+        <v>39.5313304279157</v>
       </c>
       <c r="F3">
-        <v>15.34819805298097</v>
+        <v>47.21175750897948</v>
       </c>
       <c r="G3">
-        <v>124.7944830354974</v>
+        <v>383.8735238620433</v>
       </c>
       <c r="H3">
-        <v>4.10917104617947</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I3">
-        <v>914.7072036139219</v>
+        <v>2813.681094006322</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>784.896463402496</v>
+        <v>2414.377334192469</v>
       </c>
       <c r="C4">
-        <v>4.305120297525006</v>
+        <v>13.24274646653129</v>
       </c>
       <c r="D4">
-        <v>31.77246893435886</v>
+        <v>97.73356413648794</v>
       </c>
       <c r="E4">
-        <v>13.86592726576719</v>
+        <v>42.6522249353827</v>
       </c>
       <c r="F4">
-        <v>12.7485032687627</v>
+        <v>39.21497773547156</v>
       </c>
       <c r="G4">
-        <v>134.3207794504208</v>
+        <v>413.1768462942603</v>
       </c>
       <c r="H4">
-        <v>5.057441287605501</v>
+        <v>15.5569201584519</v>
       </c>
       <c r="I4">
-        <v>986.9667039069359</v>
+        <v>3035.954613919054</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>723.8919216383173</v>
+        <v>2226.724580248665</v>
       </c>
       <c r="C5">
-        <v>2.985809238606053</v>
+        <v>9.184485452594283</v>
       </c>
       <c r="D5">
-        <v>24.9353553662057</v>
+        <v>76.7022908412943</v>
       </c>
       <c r="E5">
-        <v>14.20412061371274</v>
+        <v>43.6925231045384</v>
       </c>
       <c r="F5">
-        <v>10.74873805013325</v>
+        <v>33.06360867892701</v>
       </c>
       <c r="G5">
-        <v>127.6523719599744</v>
+        <v>392.6645205917084</v>
       </c>
       <c r="H5">
-        <v>5.689621448556188</v>
+        <v>17.50153517825839</v>
       </c>
       <c r="I5">
-        <v>910.1079383155056</v>
+        <v>2799.533544095985</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>748.3796602337973</v>
+        <v>2302.049981479629</v>
       </c>
       <c r="C6">
-        <v>3.402433783527827</v>
+        <v>10.4660415622586</v>
       </c>
       <c r="D6">
-        <v>38.20739935144419</v>
+        <v>117.5277037084348</v>
       </c>
       <c r="E6">
-        <v>14.20412061371274</v>
+        <v>43.6925231045384</v>
       </c>
       <c r="F6">
-        <v>13.04846805155712</v>
+        <v>40.13768309395326</v>
       </c>
       <c r="G6">
-        <v>112.4102976960969</v>
+        <v>345.7792047001612</v>
       </c>
       <c r="H6">
-        <v>5.373531368080844</v>
+        <v>16.52922766835515</v>
       </c>
       <c r="I6">
-        <v>935.025911098217</v>
+        <v>2876.18236531733</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>771.1489610331035</v>
+        <v>2372.089389641752</v>
       </c>
       <c r="C7">
-        <v>3.194121511066941</v>
+        <v>9.825263507426445</v>
       </c>
       <c r="D7">
-        <v>37.80521620037639</v>
+        <v>116.2905699851882</v>
       </c>
       <c r="E7">
-        <v>11.83676717809394</v>
+        <v>36.41043592044867</v>
       </c>
       <c r="F7">
-        <v>13.49841522574874</v>
+        <v>41.52174113167577</v>
       </c>
       <c r="G7">
-        <v>130.5102608844514</v>
+        <v>401.4555173213737</v>
       </c>
       <c r="H7">
-        <v>6.637891689982219</v>
+        <v>20.41845770796812</v>
       </c>
       <c r="I7">
-        <v>974.6316337228233</v>
+        <v>2998.011375215834</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>817.9763909788463</v>
+        <v>2516.132700767631</v>
       </c>
       <c r="C8">
-        <v>3.332996359374198</v>
+        <v>10.25244887731455</v>
       </c>
       <c r="D8">
-        <v>38.60958250251205</v>
+        <v>118.7648374316815</v>
       </c>
       <c r="E8">
-        <v>10.14580043836624</v>
+        <v>31.20894507467028</v>
       </c>
       <c r="F8">
-        <v>13.64839761714595</v>
+        <v>41.98309381091661</v>
       </c>
       <c r="G8">
-        <v>74.30511203640299</v>
+        <v>228.565914971293</v>
       </c>
       <c r="H8">
-        <v>7.270071850932908</v>
+        <v>22.36307272777461</v>
       </c>
       <c r="I8">
-        <v>965.2883517835807</v>
+        <v>2969.271013661281</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>957.1698524689442</v>
+        <v>2944.298139343634</v>
       </c>
       <c r="C9">
-        <v>2.846934390298794</v>
+        <v>8.757300082706179</v>
       </c>
       <c r="D9">
-        <v>45.44669607066523</v>
+        <v>139.7961107268751</v>
       </c>
       <c r="E9">
-        <v>14.20412061371274</v>
+        <v>43.6925231045384</v>
       </c>
       <c r="F9">
-        <v>12.99847392109138</v>
+        <v>39.98389886753963</v>
       </c>
       <c r="G9">
-        <v>74.30511203640299</v>
+        <v>228.565914971293</v>
       </c>
       <c r="H9">
-        <v>5.689621448556188</v>
+        <v>17.50153517825839</v>
       </c>
       <c r="I9">
-        <v>1112.660810949671</v>
+        <v>3422.595422274845</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1083.90463993678</v>
+        <v>3334.140128170552</v>
       </c>
       <c r="C10">
-        <v>2.708059541991537</v>
+        <v>8.330114712818071</v>
       </c>
       <c r="D10">
-        <v>31.37028578329103</v>
+        <v>96.49643041324123</v>
       </c>
       <c r="E10">
-        <v>24.01172770413342</v>
+        <v>73.861170010053</v>
       </c>
       <c r="F10">
-        <v>8.798966961969551</v>
+        <v>27.06602384879606</v>
       </c>
       <c r="G10">
-        <v>40.9630745841709</v>
+        <v>126.0042864585333</v>
       </c>
       <c r="H10">
-        <v>9.166612333784972</v>
+        <v>28.19691778719408</v>
       </c>
       <c r="I10">
-        <v>1200.923366846122</v>
+        <v>3694.095071401188</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1092.496828917651</v>
+        <v>3360.570093514749</v>
       </c>
       <c r="C11">
-        <v>2.638622117837908</v>
+        <v>8.116522027874021</v>
       </c>
       <c r="D11">
-        <v>27.75063742368051</v>
+        <v>85.3622269040211</v>
       </c>
       <c r="E11">
-        <v>24.01172770413342</v>
+        <v>73.861170010053</v>
       </c>
       <c r="F11">
-        <v>7.149160656600261</v>
+        <v>21.9911443771468</v>
       </c>
       <c r="G11">
-        <v>8.573666773431116</v>
+        <v>26.37299018899533</v>
       </c>
       <c r="H11">
-        <v>3.793080965704125</v>
+        <v>11.66769011883893</v>
       </c>
       <c r="I11">
-        <v>1166.413724559038</v>
+        <v>3587.941837141677</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>820.9836571221508</v>
+        <v>2525.3831886381</v>
       </c>
       <c r="C12">
-        <v>1.249873634765325</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D12">
-        <v>19.70697440232385</v>
+        <v>60.61955243908744</v>
       </c>
       <c r="E12">
-        <v>21.98256761646018</v>
+        <v>67.61938099511895</v>
       </c>
       <c r="F12">
-        <v>4.849430655176399</v>
+        <v>14.91706996212056</v>
       </c>
       <c r="G12">
-        <v>17.14733354686223</v>
+        <v>52.74598037799067</v>
       </c>
       <c r="H12">
-        <v>0.9482702414260313</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I12">
-        <v>886.8681072191649</v>
+        <v>2728.04676327112</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>671.9091783040521</v>
+        <v>2066.823289916268</v>
       </c>
       <c r="C13">
-        <v>1.874810452147987</v>
+        <v>5.767002493489435</v>
       </c>
       <c r="D13">
-        <v>13.27204398523851</v>
+        <v>40.82541286714051</v>
       </c>
       <c r="E13">
-        <v>24.68811440002451</v>
+        <v>75.94176634836435</v>
       </c>
       <c r="F13">
-        <v>2.949653697478428</v>
+        <v>9.073269358403223</v>
       </c>
       <c r="G13">
-        <v>16.19470390536989</v>
+        <v>49.81564813476897</v>
       </c>
       <c r="H13">
-        <v>0.9482702414260313</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I13">
-        <v>731.8367749857375</v>
+        <v>2251.163311648144</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>491.4732097057773</v>
+        <v>1511.794017688115</v>
       </c>
       <c r="C14">
-        <v>1.041561362304437</v>
+        <v>3.203890274160797</v>
       </c>
       <c r="D14">
-        <v>11.26112822989934</v>
+        <v>34.63974425090709</v>
       </c>
       <c r="E14">
-        <v>18.60063413700476</v>
+        <v>57.21639930356218</v>
       </c>
       <c r="F14">
-        <v>2.649688914684011</v>
+        <v>8.150563999921545</v>
       </c>
       <c r="G14">
-        <v>8.573666773431116</v>
+        <v>26.37299018899533</v>
       </c>
       <c r="H14">
-        <v>0.6321801609506876</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I14">
-        <v>534.2320692840517</v>
+        <v>1643.322220725468</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>345.4059970309834</v>
+        <v>1062.484606836751</v>
       </c>
       <c r="C15">
-        <v>1.249873634765325</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D15">
-        <v>5.630564114949669</v>
+        <v>17.31987212545354</v>
       </c>
       <c r="E15">
-        <v>9.469413742475155</v>
+        <v>29.12834873635893</v>
       </c>
       <c r="F15">
-        <v>1.449829783506345</v>
+        <v>4.459742565994806</v>
       </c>
       <c r="G15">
-        <v>18.09996318835458</v>
+        <v>55.67631262121238</v>
       </c>
       <c r="H15">
-        <v>0.6321801609506876</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I15">
-        <v>381.9378216559851</v>
+        <v>1174.85816623457</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>205.7829260918422</v>
+        <v>632.9976699935374</v>
       </c>
       <c r="C16">
-        <v>1.458185907226212</v>
+        <v>4.485446383825116</v>
       </c>
       <c r="D16">
-        <v>4.826197812814007</v>
+        <v>14.84560467896019</v>
       </c>
       <c r="E16">
-        <v>4.058320175346495</v>
+        <v>12.48357802986811</v>
       </c>
       <c r="F16">
-        <v>1.299847392109138</v>
+        <v>3.998389886753964</v>
       </c>
       <c r="G16">
-        <v>11.43155569790815</v>
+        <v>35.16398691866046</v>
       </c>
       <c r="H16">
-        <v>0.6321801609506876</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I16">
-        <v>229.4892132381969</v>
+        <v>705.9192909114118</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>151.6521355123596</v>
+        <v>466.4888883250912</v>
       </c>
       <c r="C17">
-        <v>2.291434997069762</v>
+        <v>7.048558603153753</v>
       </c>
       <c r="D17">
-        <v>0.4021831510678338</v>
+        <v>1.237133723246682</v>
       </c>
       <c r="E17">
-        <v>2.029160087673247</v>
+        <v>6.241789014934056</v>
       </c>
       <c r="F17">
-        <v>2.049759349095179</v>
+        <v>6.305153282958171</v>
       </c>
       <c r="G17">
-        <v>15.24207426387754</v>
+        <v>46.88531589154725</v>
       </c>
       <c r="I17">
-        <v>173.6667473611432</v>
+        <v>534.2068388409311</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>88.4995465029634</v>
+        <v>272.2286430452372</v>
       </c>
       <c r="C18">
-        <v>1.666498179687099</v>
+        <v>5.126224438657275</v>
       </c>
       <c r="D18">
-        <v>0.4021831510678338</v>
+        <v>1.237133723246682</v>
       </c>
       <c r="E18">
-        <v>1.352773391782165</v>
+        <v>4.161192676622703</v>
       </c>
       <c r="F18">
-        <v>1.599812174903554</v>
+        <v>4.921095245235647</v>
       </c>
       <c r="G18">
-        <v>14.2894446223852</v>
+        <v>43.95498364832557</v>
       </c>
       <c r="H18">
-        <v>0.3160900804753438</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I18">
-        <v>108.1263481032646</v>
+        <v>332.6015802872284</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>67.87829294887483</v>
+        <v>208.7967262191626</v>
       </c>
       <c r="C19">
-        <v>2.360872421223391</v>
+        <v>7.262151288097806</v>
       </c>
       <c r="D19">
-        <v>3.21746520854267</v>
+        <v>9.897069785973457</v>
       </c>
       <c r="E19">
-        <v>0.3381933479455412</v>
+        <v>1.040298169155676</v>
       </c>
       <c r="F19">
-        <v>1.049876739780458</v>
+        <v>3.229468754685894</v>
       </c>
       <c r="G19">
-        <v>19.05259282984693</v>
+        <v>58.6066448644341</v>
       </c>
       <c r="I19">
-        <v>93.89729349621383</v>
+        <v>288.8323590815095</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>84.20345201252833</v>
+        <v>259.0136603731384</v>
       </c>
       <c r="C20">
-        <v>1.249873634765325</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D20">
-        <v>2.413098906407003</v>
+        <v>7.422802339480095</v>
       </c>
       <c r="E20">
-        <v>3.04374013150987</v>
+        <v>9.362683522401085</v>
       </c>
       <c r="F20">
-        <v>1.299847392109138</v>
+        <v>3.998389886753964</v>
       </c>
       <c r="G20">
-        <v>16.19470390536989</v>
+        <v>49.81564813476897</v>
       </c>
       <c r="H20">
-        <v>0.3160900804753438</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I20">
-        <v>108.7208060631649</v>
+        <v>334.4301600954387</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>124.1571307735749</v>
+        <v>381.9129992236583</v>
       </c>
       <c r="C21">
-        <v>0.3471871207681457</v>
+        <v>1.067963424720265</v>
       </c>
       <c r="D21">
-        <v>5.22838096388184</v>
+        <v>16.08273840220687</v>
       </c>
       <c r="E21">
-        <v>1.690966739727706</v>
+        <v>5.20149084577838</v>
       </c>
       <c r="F21">
-        <v>2.399718262355331</v>
+        <v>7.381642867853471</v>
       </c>
       <c r="G21">
-        <v>27.62625960327805</v>
+        <v>84.97963505342942</v>
       </c>
       <c r="H21">
-        <v>0.3160900804753438</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I21">
-        <v>161.7657335440613</v>
+        <v>497.59877732755</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>329.08083796733</v>
+        <v>1012.267672682776</v>
       </c>
       <c r="C22">
-        <v>0.6943742415362913</v>
+        <v>2.135926849440531</v>
       </c>
       <c r="D22">
-        <v>10.45676192776368</v>
+        <v>32.16547680441375</v>
       </c>
       <c r="E22">
-        <v>12.17496052603948</v>
+        <v>37.45073408960434</v>
       </c>
       <c r="F22">
-        <v>5.149395437970815</v>
+        <v>15.83977532060224</v>
       </c>
       <c r="G22">
-        <v>42.86833386715559</v>
+        <v>131.8649509449768</v>
       </c>
       <c r="H22">
-        <v>0.6321801609506876</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I22">
-        <v>401.0568441287465</v>
+        <v>1233.66915171162</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>540.0190774476943</v>
+        <v>1661.123321882832</v>
       </c>
       <c r="C23">
-        <v>1.527623331379841</v>
+        <v>4.699039068769168</v>
       </c>
       <c r="D23">
-        <v>20.91352385552736</v>
+        <v>64.3309536088275</v>
       </c>
       <c r="E23">
-        <v>29.76101461920762</v>
+        <v>91.54623888569951</v>
       </c>
       <c r="F23">
-        <v>9.098931744763966</v>
+        <v>27.98872920727775</v>
       </c>
       <c r="G23">
-        <v>57.15777848954078</v>
+        <v>175.8199345933023</v>
       </c>
       <c r="H23">
-        <v>4.10917104617947</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I23">
-        <v>662.5871205342931</v>
+        <v>2038.148214875451</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>907.7647658289401</v>
+        <v>2792.325838614497</v>
       </c>
       <c r="C24">
-        <v>1.527623331379841</v>
+        <v>4.699039068769168</v>
       </c>
       <c r="D24">
-        <v>34.18556784076589</v>
+        <v>105.156366475968</v>
       </c>
       <c r="E24">
-        <v>37.53946162195507</v>
+        <v>115.47309677628</v>
       </c>
       <c r="F24">
-        <v>11.44865587665356</v>
+        <v>35.21658784871761</v>
       </c>
       <c r="G24">
-        <v>108.5997791301275</v>
+        <v>334.0578757272743</v>
       </c>
       <c r="H24">
-        <v>8.21834209235894</v>
+        <v>25.27999525748434</v>
       </c>
       <c r="I24">
-        <v>1109.284195722181</v>
+        <v>3412.20879976899</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1043.950961175733</v>
+        <v>3211.240789320032</v>
       </c>
       <c r="C25">
-        <v>1.388748483072583</v>
+        <v>4.271853698881062</v>
       </c>
       <c r="D25">
-        <v>31.37028578329103</v>
+        <v>96.49643041324123</v>
       </c>
       <c r="E25">
-        <v>20.96798757262356</v>
+        <v>64.49848648765192</v>
       </c>
       <c r="F25">
-        <v>9.498884788489846</v>
+        <v>29.21900301858666</v>
       </c>
       <c r="G25">
-        <v>62.87355633849486</v>
+        <v>193.4019280526325</v>
       </c>
       <c r="H25">
-        <v>4.425261126654815</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I25">
-        <v>1174.47568526836</v>
+        <v>3612.740796129671</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>844.1825673705006</v>
+        <v>2596.744095067433</v>
       </c>
       <c r="C26">
-        <v>1.944247876301616</v>
+        <v>5.980595178433489</v>
       </c>
       <c r="D26">
-        <v>36.59866674717286</v>
+        <v>112.5791688154481</v>
       </c>
       <c r="E26">
-        <v>17.92424744111368</v>
+        <v>55.13580296525083</v>
       </c>
       <c r="F26">
-        <v>12.84849152969417</v>
+        <v>39.5225461882988</v>
       </c>
       <c r="G26">
-        <v>155.2786315632525</v>
+        <v>477.644155645138</v>
       </c>
       <c r="H26">
-        <v>4.741351207130157</v>
+        <v>14.58461264854866</v>
       </c>
       <c r="I26">
-        <v>1073.518203735166</v>
+        <v>3302.190976508551</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>726.0399688835346</v>
+        <v>2233.332071584714</v>
       </c>
       <c r="C27">
-        <v>3.819058328449602</v>
+        <v>11.74759767192292</v>
       </c>
       <c r="D27">
-        <v>32.97901838756236</v>
+        <v>101.444965306228</v>
       </c>
       <c r="E27">
-        <v>13.86592726576719</v>
+        <v>42.6522249353827</v>
       </c>
       <c r="F27">
-        <v>15.04823327018656</v>
+        <v>46.2890521504978</v>
       </c>
       <c r="G27">
-        <v>140.0365572993749</v>
+        <v>430.7588397535905</v>
       </c>
       <c r="H27">
-        <v>6.953981770457564</v>
+        <v>21.39076521787137</v>
       </c>
       <c r="I27">
-        <v>938.7427452053328</v>
+        <v>2887.615516620207</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>764.7048192974511</v>
+        <v>2352.266915633604</v>
       </c>
       <c r="C28">
-        <v>3.541308631835086</v>
+        <v>10.89322693214671</v>
       </c>
       <c r="D28">
-        <v>31.37028578329103</v>
+        <v>96.49643041324123</v>
       </c>
       <c r="E28">
-        <v>19.61521418084139</v>
+        <v>60.33729381102922</v>
       </c>
       <c r="F28">
-        <v>12.39854435550255</v>
+        <v>38.13848815057626</v>
       </c>
       <c r="G28">
-        <v>162.8996686951913</v>
+        <v>501.0868135909114</v>
       </c>
       <c r="H28">
-        <v>7.270071850932908</v>
+        <v>22.36307272777461</v>
       </c>
       <c r="I28">
-        <v>1001.799912795045</v>
+        <v>3081.582241259283</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>762.1271626031901</v>
+        <v>2344.337926030345</v>
       </c>
       <c r="C29">
-        <v>3.263558935220569</v>
+        <v>10.0388561923705</v>
       </c>
       <c r="D29">
-        <v>26.54408797047702</v>
+        <v>81.65082573428101</v>
       </c>
       <c r="E29">
-        <v>13.1895405698761</v>
+        <v>40.57162859707137</v>
       </c>
       <c r="F29">
-        <v>11.34866761572209</v>
+        <v>34.90901939589038</v>
       </c>
       <c r="G29">
-        <v>121.9365941110203</v>
+        <v>375.082527132378</v>
       </c>
       <c r="H29">
-        <v>4.425261126654815</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I29">
-        <v>942.834872932161</v>
+        <v>2900.203088220981</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>806.3769358546712</v>
+        <v>2480.452247552963</v>
       </c>
       <c r="C30">
-        <v>3.402433783527827</v>
+        <v>10.4660415622586</v>
       </c>
       <c r="D30">
-        <v>25.73972166834136</v>
+        <v>79.17655828778766</v>
       </c>
       <c r="E30">
-        <v>15.55689400549489</v>
+        <v>47.85371578116111</v>
       </c>
       <c r="F30">
-        <v>14.1483389218033</v>
+        <v>43.52093607505277</v>
       </c>
       <c r="G30">
-        <v>100.9787419981887</v>
+        <v>310.6152177815007</v>
       </c>
       <c r="H30">
-        <v>6.637891689982219</v>
+        <v>20.41845770796812</v>
       </c>
       <c r="I30">
-        <v>972.8409579220095</v>
+        <v>2992.503174748692</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>777.5931027687562</v>
+        <v>2391.9118636499</v>
       </c>
       <c r="C31">
-        <v>2.708059541991537</v>
+        <v>8.330114712818071</v>
       </c>
       <c r="D31">
-        <v>36.59866674717286</v>
+        <v>112.5791688154481</v>
       </c>
       <c r="E31">
-        <v>14.20412061371274</v>
+        <v>43.6925231045384</v>
       </c>
       <c r="F31">
-        <v>13.39842696481727</v>
+        <v>41.21417267884856</v>
       </c>
       <c r="G31">
-        <v>96.21559379072698</v>
+        <v>295.9635565653921</v>
       </c>
       <c r="H31">
-        <v>7.586161931408251</v>
+        <v>23.33538023767785</v>
       </c>
       <c r="I31">
-        <v>948.3041323585859</v>
+        <v>2917.026779764623</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>823.5613138164121</v>
+        <v>2533.312178241359</v>
       </c>
       <c r="C32">
-        <v>3.124684086913311</v>
+        <v>9.611670822482392</v>
       </c>
       <c r="D32">
-        <v>36.19648359610505</v>
+        <v>111.3420350922014</v>
       </c>
       <c r="E32">
-        <v>14.88050730960381</v>
+        <v>45.77311944284975</v>
       </c>
       <c r="F32">
-        <v>13.04846805155712</v>
+        <v>40.13768309395326</v>
       </c>
       <c r="G32">
-        <v>95.26296414923466</v>
+        <v>293.0332243221706</v>
       </c>
       <c r="H32">
-        <v>4.425261126654815</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I32">
-        <v>990.4996821364809</v>
+        <v>3046.822216153661</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>957.1698524689442</v>
+        <v>2944.298139343634</v>
       </c>
       <c r="C33">
-        <v>2.846934390298794</v>
+        <v>8.757300082706179</v>
       </c>
       <c r="D33">
-        <v>45.44669607066523</v>
+        <v>139.7961107268751</v>
       </c>
       <c r="E33">
-        <v>14.20412061371274</v>
+        <v>43.6925231045384</v>
       </c>
       <c r="F33">
-        <v>12.99847392109138</v>
+        <v>39.98389886753963</v>
       </c>
       <c r="G33">
-        <v>74.30511203640299</v>
+        <v>228.565914971293</v>
       </c>
       <c r="H33">
-        <v>5.689621448556188</v>
+        <v>17.50153517825839</v>
       </c>
       <c r="I33">
-        <v>1112.660810949671</v>
+        <v>3422.595422274845</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1083.90463993678</v>
+        <v>3334.140128170552</v>
       </c>
       <c r="C34">
-        <v>2.708059541991537</v>
+        <v>8.330114712818071</v>
       </c>
       <c r="D34">
-        <v>31.37028578329103</v>
+        <v>96.49643041324123</v>
       </c>
       <c r="E34">
-        <v>24.01172770413342</v>
+        <v>73.861170010053</v>
       </c>
       <c r="F34">
-        <v>8.798966961969551</v>
+        <v>27.06602384879606</v>
       </c>
       <c r="G34">
-        <v>40.9630745841709</v>
+        <v>126.0042864585333</v>
       </c>
       <c r="H34">
-        <v>9.166612333784972</v>
+        <v>28.19691778719408</v>
       </c>
       <c r="I34">
-        <v>1200.923366846122</v>
+        <v>3694.095071401188</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1092.496828917651</v>
+        <v>3360.570093514749</v>
       </c>
       <c r="C35">
-        <v>2.638622117837908</v>
+        <v>8.116522027874021</v>
       </c>
       <c r="D35">
-        <v>27.75063742368051</v>
+        <v>85.3622269040211</v>
       </c>
       <c r="E35">
-        <v>24.01172770413342</v>
+        <v>73.861170010053</v>
       </c>
       <c r="F35">
-        <v>7.149160656600261</v>
+        <v>21.9911443771468</v>
       </c>
       <c r="G35">
-        <v>8.573666773431116</v>
+        <v>26.37299018899533</v>
       </c>
       <c r="H35">
-        <v>3.793080965704125</v>
+        <v>11.66769011883893</v>
       </c>
       <c r="I35">
-        <v>1166.413724559038</v>
+        <v>3587.941837141677</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>820.9836571221508</v>
+        <v>2525.3831886381</v>
       </c>
       <c r="C36">
-        <v>1.249873634765325</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D36">
-        <v>19.70697440232385</v>
+        <v>60.61955243908744</v>
       </c>
       <c r="E36">
-        <v>21.98256761646018</v>
+        <v>67.61938099511895</v>
       </c>
       <c r="F36">
-        <v>4.849430655176399</v>
+        <v>14.91706996212056</v>
       </c>
       <c r="G36">
-        <v>17.14733354686223</v>
+        <v>52.74598037799067</v>
       </c>
       <c r="H36">
-        <v>0.9482702414260313</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I36">
-        <v>886.8681072191649</v>
+        <v>2728.04676327112</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>671.9091783040521</v>
+        <v>2066.823289916268</v>
       </c>
       <c r="C37">
-        <v>1.874810452147987</v>
+        <v>5.767002493489435</v>
       </c>
       <c r="D37">
-        <v>13.27204398523851</v>
+        <v>40.82541286714051</v>
       </c>
       <c r="E37">
-        <v>24.68811440002451</v>
+        <v>75.94176634836435</v>
       </c>
       <c r="F37">
-        <v>2.949653697478428</v>
+        <v>9.073269358403223</v>
       </c>
       <c r="G37">
-        <v>16.19470390536989</v>
+        <v>49.81564813476897</v>
       </c>
       <c r="H37">
-        <v>0.9482702414260313</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I37">
-        <v>731.8367749857375</v>
+        <v>2251.163311648144</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>491.4732097057773</v>
+        <v>1511.794017688115</v>
       </c>
       <c r="C38">
-        <v>1.041561362304437</v>
+        <v>3.203890274160797</v>
       </c>
       <c r="D38">
-        <v>11.26112822989934</v>
+        <v>34.63974425090709</v>
       </c>
       <c r="E38">
-        <v>18.60063413700476</v>
+        <v>57.21639930356218</v>
       </c>
       <c r="F38">
-        <v>2.649688914684011</v>
+        <v>8.150563999921545</v>
       </c>
       <c r="G38">
-        <v>8.573666773431116</v>
+        <v>26.37299018899533</v>
       </c>
       <c r="H38">
-        <v>0.6321801609506876</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I38">
-        <v>534.2320692840517</v>
+        <v>1643.322220725468</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>345.4059970309834</v>
+        <v>1062.484606836751</v>
       </c>
       <c r="C39">
-        <v>1.249873634765325</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D39">
-        <v>5.630564114949669</v>
+        <v>17.31987212545354</v>
       </c>
       <c r="E39">
-        <v>9.469413742475155</v>
+        <v>29.12834873635893</v>
       </c>
       <c r="F39">
-        <v>1.449829783506345</v>
+        <v>4.459742565994806</v>
       </c>
       <c r="G39">
-        <v>18.09996318835458</v>
+        <v>55.67631262121238</v>
       </c>
       <c r="H39">
-        <v>0.6321801609506876</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I39">
-        <v>381.9378216559851</v>
+        <v>1174.85816623457</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>205.7829260918422</v>
+        <v>632.9976699935374</v>
       </c>
       <c r="C40">
-        <v>1.458185907226212</v>
+        <v>4.485446383825116</v>
       </c>
       <c r="D40">
-        <v>4.826197812814007</v>
+        <v>14.84560467896019</v>
       </c>
       <c r="E40">
-        <v>4.058320175346495</v>
+        <v>12.48357802986811</v>
       </c>
       <c r="F40">
-        <v>1.299847392109138</v>
+        <v>3.998389886753964</v>
       </c>
       <c r="G40">
-        <v>11.43155569790815</v>
+        <v>35.16398691866046</v>
       </c>
       <c r="H40">
-        <v>0.6321801609506876</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I40">
-        <v>229.4892132381969</v>
+        <v>705.9192909114118</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>151.6521355123596</v>
+        <v>466.4888883250912</v>
       </c>
       <c r="C41">
-        <v>2.291434997069762</v>
+        <v>7.048558603153753</v>
       </c>
       <c r="D41">
-        <v>0.4021831510678338</v>
+        <v>1.237133723246682</v>
       </c>
       <c r="E41">
-        <v>2.029160087673247</v>
+        <v>6.241789014934056</v>
       </c>
       <c r="F41">
-        <v>2.049759349095179</v>
+        <v>6.305153282958171</v>
       </c>
       <c r="G41">
-        <v>15.24207426387754</v>
+        <v>46.88531589154725</v>
       </c>
       <c r="I41">
-        <v>173.6667473611432</v>
+        <v>534.2068388409311</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>88.4995465029634</v>
+        <v>272.2286430452372</v>
       </c>
       <c r="C42">
-        <v>1.666498179687099</v>
+        <v>5.126224438657275</v>
       </c>
       <c r="D42">
-        <v>0.4021831510678338</v>
+        <v>1.237133723246682</v>
       </c>
       <c r="E42">
-        <v>1.352773391782165</v>
+        <v>4.161192676622703</v>
       </c>
       <c r="F42">
-        <v>1.599812174903554</v>
+        <v>4.921095245235647</v>
       </c>
       <c r="G42">
-        <v>14.2894446223852</v>
+        <v>43.95498364832557</v>
       </c>
       <c r="H42">
-        <v>0.3160900804753438</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I42">
-        <v>108.1263481032646</v>
+        <v>332.6015802872284</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>67.87829294887483</v>
+        <v>208.7967262191626</v>
       </c>
       <c r="C43">
-        <v>2.360872421223391</v>
+        <v>7.262151288097806</v>
       </c>
       <c r="D43">
-        <v>3.21746520854267</v>
+        <v>9.897069785973457</v>
       </c>
       <c r="E43">
-        <v>0.3381933479455412</v>
+        <v>1.040298169155676</v>
       </c>
       <c r="F43">
-        <v>1.049876739780458</v>
+        <v>3.229468754685894</v>
       </c>
       <c r="G43">
-        <v>19.05259282984693</v>
+        <v>58.6066448644341</v>
       </c>
       <c r="I43">
-        <v>93.89729349621383</v>
+        <v>288.8323590815095</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>84.20345201252833</v>
+        <v>259.0136603731384</v>
       </c>
       <c r="C44">
-        <v>1.249873634765325</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D44">
-        <v>2.413098906407003</v>
+        <v>7.422802339480095</v>
       </c>
       <c r="E44">
-        <v>3.04374013150987</v>
+        <v>9.362683522401085</v>
       </c>
       <c r="F44">
-        <v>1.299847392109138</v>
+        <v>3.998389886753964</v>
       </c>
       <c r="G44">
-        <v>16.19470390536989</v>
+        <v>49.81564813476897</v>
       </c>
       <c r="H44">
-        <v>0.3160900804753438</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I44">
-        <v>108.7208060631649</v>
+        <v>334.4301600954387</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>124.1571307735749</v>
+        <v>381.9129992236583</v>
       </c>
       <c r="C45">
-        <v>0.3471871207681457</v>
+        <v>1.067963424720265</v>
       </c>
       <c r="D45">
-        <v>5.22838096388184</v>
+        <v>16.08273840220687</v>
       </c>
       <c r="E45">
-        <v>1.690966739727706</v>
+        <v>5.20149084577838</v>
       </c>
       <c r="F45">
-        <v>2.399718262355331</v>
+        <v>7.381642867853471</v>
       </c>
       <c r="G45">
-        <v>27.62625960327805</v>
+        <v>84.97963505342942</v>
       </c>
       <c r="H45">
-        <v>0.3160900804753438</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I45">
-        <v>161.7657335440613</v>
+        <v>497.59877732755</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>329.08083796733</v>
+        <v>1012.267672682776</v>
       </c>
       <c r="C46">
-        <v>0.6943742415362913</v>
+        <v>2.135926849440531</v>
       </c>
       <c r="D46">
-        <v>10.45676192776368</v>
+        <v>32.16547680441375</v>
       </c>
       <c r="E46">
-        <v>12.17496052603948</v>
+        <v>37.45073408960434</v>
       </c>
       <c r="F46">
-        <v>5.149395437970815</v>
+        <v>15.83977532060224</v>
       </c>
       <c r="G46">
-        <v>42.86833386715559</v>
+        <v>131.8649509449768</v>
       </c>
       <c r="H46">
-        <v>0.6321801609506876</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I46">
-        <v>401.0568441287465</v>
+        <v>1233.66915171162</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>540.0190774476943</v>
+        <v>1661.123321882832</v>
       </c>
       <c r="C47">
-        <v>1.527623331379841</v>
+        <v>4.699039068769168</v>
       </c>
       <c r="D47">
-        <v>20.91352385552736</v>
+        <v>64.3309536088275</v>
       </c>
       <c r="E47">
-        <v>29.76101461920762</v>
+        <v>91.54623888569951</v>
       </c>
       <c r="F47">
-        <v>9.098931744763966</v>
+        <v>27.98872920727775</v>
       </c>
       <c r="G47">
-        <v>57.15777848954078</v>
+        <v>175.8199345933023</v>
       </c>
       <c r="H47">
-        <v>4.10917104617947</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I47">
-        <v>662.5871205342931</v>
+        <v>2038.148214875451</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>907.7647658289401</v>
+        <v>2792.325838614497</v>
       </c>
       <c r="C48">
-        <v>1.527623331379841</v>
+        <v>4.699039068769168</v>
       </c>
       <c r="D48">
-        <v>34.18556784076589</v>
+        <v>105.156366475968</v>
       </c>
       <c r="E48">
-        <v>37.53946162195507</v>
+        <v>115.47309677628</v>
       </c>
       <c r="F48">
-        <v>11.44865587665356</v>
+        <v>35.21658784871761</v>
       </c>
       <c r="G48">
-        <v>108.5997791301275</v>
+        <v>334.0578757272743</v>
       </c>
       <c r="H48">
-        <v>8.21834209235894</v>
+        <v>25.27999525748434</v>
       </c>
       <c r="I48">
-        <v>1109.284195722181</v>
+        <v>3412.20879976899</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1043.950961175733</v>
+        <v>3211.240789320032</v>
       </c>
       <c r="C49">
-        <v>1.388748483072583</v>
+        <v>4.271853698881062</v>
       </c>
       <c r="D49">
-        <v>31.37028578329103</v>
+        <v>96.49643041324123</v>
       </c>
       <c r="E49">
-        <v>20.96798757262356</v>
+        <v>64.49848648765192</v>
       </c>
       <c r="F49">
-        <v>9.498884788489846</v>
+        <v>29.21900301858666</v>
       </c>
       <c r="G49">
-        <v>62.87355633849486</v>
+        <v>193.4019280526325</v>
       </c>
       <c r="H49">
-        <v>4.425261126654815</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I49">
-        <v>1174.47568526836</v>
+        <v>3612.740796129671</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_CO.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2596.744095067433</v>
+        <v>812.084370892535</v>
       </c>
       <c r="C2">
-        <v>5.980595178433489</v>
+        <v>1.870322101537296</v>
       </c>
       <c r="D2">
-        <v>112.5791688154481</v>
+        <v>35.20708246020811</v>
       </c>
       <c r="E2">
-        <v>55.13580296525083</v>
+        <v>17.24271712015879</v>
       </c>
       <c r="F2">
-        <v>39.5225461882988</v>
+        <v>12.35995573008602</v>
       </c>
       <c r="G2">
-        <v>477.644155645138</v>
+        <v>149.3745010855623</v>
       </c>
       <c r="H2">
-        <v>14.58461264854866</v>
+        <v>4.561071693551064</v>
       </c>
       <c r="I2">
-        <v>3302.190976508551</v>
+        <v>1032.700021083638</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>2261.083535196121</v>
+        <v>707.1126506855609</v>
       </c>
       <c r="C3">
-        <v>13.6699318364194</v>
+        <v>4.275021946370962</v>
       </c>
       <c r="D3">
-        <v>55.67101754610069</v>
+        <v>17.41009572208095</v>
       </c>
       <c r="E3">
-        <v>39.5313304279157</v>
+        <v>12.36270284086857</v>
       </c>
       <c r="F3">
-        <v>47.21175750897948</v>
+        <v>14.76461637796269</v>
       </c>
       <c r="G3">
-        <v>383.8735238620433</v>
+        <v>120.0494456577218</v>
       </c>
       <c r="H3">
-        <v>12.63999762874217</v>
+        <v>3.952928801077588</v>
       </c>
       <c r="I3">
-        <v>2813.681094006322</v>
+        <v>879.9274620316437</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>2414.377334192469</v>
+        <v>755.0524914100056</v>
       </c>
       <c r="C4">
-        <v>13.24274646653129</v>
+        <v>4.14142751054687</v>
       </c>
       <c r="D4">
-        <v>97.73356413648794</v>
+        <v>30.5643902676532</v>
       </c>
       <c r="E4">
-        <v>42.6522249353827</v>
+        <v>13.33870569672661</v>
       </c>
       <c r="F4">
-        <v>39.21497773547156</v>
+        <v>12.26376930417096</v>
       </c>
       <c r="G4">
-        <v>413.1768462942603</v>
+        <v>129.213525478922</v>
       </c>
       <c r="H4">
-        <v>15.5569201584519</v>
+        <v>4.865143139787801</v>
       </c>
       <c r="I4">
-        <v>3035.954613919054</v>
+        <v>949.439452807813</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>2226.724580248665</v>
+        <v>696.3675139714612</v>
       </c>
       <c r="C5">
-        <v>9.184485452594283</v>
+        <v>2.87228037021799</v>
       </c>
       <c r="D5">
-        <v>76.7022908412943</v>
+        <v>23.98724299486707</v>
       </c>
       <c r="E5">
-        <v>43.6925231045384</v>
+        <v>13.66403998201262</v>
       </c>
       <c r="F5">
-        <v>33.06360867892701</v>
+        <v>10.34004078586963</v>
       </c>
       <c r="G5">
-        <v>392.6645205917084</v>
+        <v>122.7986696040818</v>
       </c>
       <c r="H5">
-        <v>17.50153517825839</v>
+        <v>5.473286032261277</v>
       </c>
       <c r="I5">
-        <v>2799.533544095985</v>
+        <v>875.5030737407716</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>2302.049981479629</v>
+        <v>719.9241598446794</v>
       </c>
       <c r="C6">
-        <v>10.4660415622586</v>
+        <v>3.273063677690268</v>
       </c>
       <c r="D6">
-        <v>117.5277037084348</v>
+        <v>36.75464652439307</v>
       </c>
       <c r="E6">
-        <v>43.6925231045384</v>
+        <v>13.66403998201262</v>
       </c>
       <c r="F6">
-        <v>40.13768309395326</v>
+        <v>12.55232858191616</v>
       </c>
       <c r="G6">
-        <v>345.7792047001612</v>
+        <v>108.1361418901616</v>
       </c>
       <c r="H6">
-        <v>16.52922766835515</v>
+        <v>5.169214586024539</v>
       </c>
       <c r="I6">
-        <v>2876.18236531733</v>
+        <v>899.4735950868776</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>2372.089389641752</v>
+        <v>741.8277077618829</v>
       </c>
       <c r="C7">
-        <v>9.825263507426445</v>
+        <v>3.072672023954129</v>
       </c>
       <c r="D7">
-        <v>116.2905699851882</v>
+        <v>36.36775550834683</v>
       </c>
       <c r="E7">
-        <v>36.41043592044867</v>
+        <v>11.38669998501052</v>
       </c>
       <c r="F7">
-        <v>41.52174113167577</v>
+        <v>12.98516749853396</v>
       </c>
       <c r="G7">
-        <v>401.4555173213737</v>
+        <v>125.5478935504419</v>
       </c>
       <c r="H7">
-        <v>20.41845770796812</v>
+        <v>6.385500370971489</v>
       </c>
       <c r="I7">
-        <v>2998.011375215834</v>
+        <v>937.5733966991419</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2516.132700767631</v>
+        <v>786.8746270633006</v>
       </c>
       <c r="C8">
-        <v>10.25244887731455</v>
+        <v>3.206266459778222</v>
       </c>
       <c r="D8">
-        <v>118.7648374316815</v>
+        <v>37.14153754043932</v>
       </c>
       <c r="E8">
-        <v>31.20894507467028</v>
+        <v>9.760028558580446</v>
       </c>
       <c r="F8">
-        <v>41.98309381091661</v>
+        <v>13.12944713740656</v>
       </c>
       <c r="G8">
-        <v>228.565914971293</v>
+        <v>71.47982260536109</v>
       </c>
       <c r="H8">
-        <v>22.36307272777461</v>
+        <v>6.993643263444965</v>
       </c>
       <c r="I8">
-        <v>2969.271013661281</v>
+        <v>928.5853726283112</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>2944.298139343634</v>
+        <v>920.7755615005429</v>
       </c>
       <c r="C9">
-        <v>8.757300082706179</v>
+        <v>2.738685934393897</v>
       </c>
       <c r="D9">
-        <v>139.7961107268751</v>
+        <v>43.71868481322543</v>
       </c>
       <c r="E9">
-        <v>43.6925231045384</v>
+        <v>13.66403998201262</v>
       </c>
       <c r="F9">
-        <v>39.98389886753963</v>
+        <v>12.50423536895862</v>
       </c>
       <c r="G9">
-        <v>228.565914971293</v>
+        <v>71.47982260536109</v>
       </c>
       <c r="H9">
-        <v>17.50153517825839</v>
+        <v>5.473286032261277</v>
       </c>
       <c r="I9">
-        <v>3422.595422274845</v>
+        <v>1070.354316236756</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>3334.140128170552</v>
+        <v>1042.691535756674</v>
       </c>
       <c r="C10">
-        <v>8.330114712818071</v>
+        <v>2.605091498569805</v>
       </c>
       <c r="D10">
-        <v>96.49643041324123</v>
+        <v>30.17749925160696</v>
       </c>
       <c r="E10">
-        <v>73.861170010053</v>
+        <v>23.09873425530706</v>
       </c>
       <c r="F10">
-        <v>27.06602384879606</v>
+        <v>8.464405480525839</v>
       </c>
       <c r="G10">
-        <v>126.0042864585333</v>
+        <v>39.4055432311606</v>
       </c>
       <c r="H10">
-        <v>28.19691778719408</v>
+        <v>8.818071940865391</v>
       </c>
       <c r="I10">
-        <v>3694.095071401188</v>
+        <v>1155.26088141471</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>3360.570093514749</v>
+        <v>1050.957025536751</v>
       </c>
       <c r="C11">
-        <v>8.116522027874021</v>
+        <v>2.538294280657759</v>
       </c>
       <c r="D11">
-        <v>85.3622269040211</v>
+        <v>26.69548010719078</v>
       </c>
       <c r="E11">
-        <v>73.861170010053</v>
+        <v>23.09873425530706</v>
       </c>
       <c r="F11">
-        <v>21.9911443771468</v>
+        <v>6.877329452927246</v>
       </c>
       <c r="G11">
-        <v>26.37299018899533</v>
+        <v>8.247671839080127</v>
       </c>
       <c r="H11">
-        <v>11.66769011883893</v>
+        <v>3.64885735484085</v>
       </c>
       <c r="I11">
-        <v>3587.941837141677</v>
+        <v>1122.063392826755</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2525.3831886381</v>
+        <v>789.7675484863278</v>
       </c>
       <c r="C12">
-        <v>3.844668328992956</v>
+        <v>1.202349922416833</v>
       </c>
       <c r="D12">
-        <v>60.61955243908744</v>
+        <v>18.95765978626591</v>
       </c>
       <c r="E12">
-        <v>67.61938099511895</v>
+        <v>21.14672854359096</v>
       </c>
       <c r="F12">
-        <v>14.91706996212056</v>
+        <v>4.665041656880718</v>
       </c>
       <c r="G12">
-        <v>52.74598037799067</v>
+        <v>16.49534367816025</v>
       </c>
       <c r="H12">
-        <v>2.916922529709732</v>
+        <v>0.9122143387102126</v>
       </c>
       <c r="I12">
-        <v>2728.04676327112</v>
+        <v>853.1468864123526</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>2066.823289916268</v>
+        <v>646.3613008019973</v>
       </c>
       <c r="C13">
-        <v>5.767002493489435</v>
+        <v>1.80352488362525</v>
       </c>
       <c r="D13">
-        <v>40.82541286714051</v>
+        <v>12.76740352952602</v>
       </c>
       <c r="E13">
-        <v>75.94176634836435</v>
+        <v>23.74940282587909</v>
       </c>
       <c r="F13">
-        <v>9.073269358403223</v>
+        <v>2.837499564494458</v>
       </c>
       <c r="G13">
-        <v>49.81564813476897</v>
+        <v>15.57893569604023</v>
       </c>
       <c r="H13">
-        <v>2.916922529709732</v>
+        <v>0.9122143387102126</v>
       </c>
       <c r="I13">
-        <v>2251.163311648144</v>
+        <v>704.0102816402728</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1511.794017688115</v>
+        <v>472.7860154203867</v>
       </c>
       <c r="C14">
-        <v>3.203890274160797</v>
+        <v>1.001958268680694</v>
       </c>
       <c r="D14">
-        <v>34.63974425090709</v>
+        <v>10.83294844929481</v>
       </c>
       <c r="E14">
-        <v>57.21639930356218</v>
+        <v>17.89338569073082</v>
       </c>
       <c r="F14">
-        <v>8.150563999921545</v>
+        <v>2.548940286749259</v>
       </c>
       <c r="G14">
-        <v>26.37299018899533</v>
+        <v>8.247671839080127</v>
       </c>
       <c r="H14">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I14">
-        <v>1643.322220725468</v>
+        <v>513.9190628473958</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>1062.484606836751</v>
+        <v>332.2726891590829</v>
       </c>
       <c r="C15">
-        <v>3.844668328992956</v>
+        <v>1.202349922416833</v>
       </c>
       <c r="D15">
-        <v>17.31987212545354</v>
+        <v>5.416474224647403</v>
       </c>
       <c r="E15">
-        <v>29.12834873635893</v>
+        <v>9.109359988008418</v>
       </c>
       <c r="F15">
-        <v>4.459742565994806</v>
+        <v>1.394703175768461</v>
       </c>
       <c r="G15">
-        <v>55.67631262121238</v>
+        <v>17.41175166028026</v>
       </c>
       <c r="H15">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I15">
-        <v>1174.85816623457</v>
+        <v>367.4154710226778</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>632.9976699935374</v>
+        <v>197.9584802328366</v>
       </c>
       <c r="C16">
-        <v>4.485446383825116</v>
+        <v>1.402741576152972</v>
       </c>
       <c r="D16">
-        <v>14.84560467896019</v>
+        <v>4.642692192554915</v>
       </c>
       <c r="E16">
-        <v>12.48357802986811</v>
+        <v>3.904011423432179</v>
       </c>
       <c r="F16">
-        <v>3.998389886753964</v>
+        <v>1.250423536895862</v>
       </c>
       <c r="G16">
-        <v>35.16398691866046</v>
+        <v>10.99689578544016</v>
       </c>
       <c r="H16">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I16">
-        <v>705.9192909114118</v>
+        <v>220.7633876397862</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>466.4888883250912</v>
+        <v>145.8858946183536</v>
       </c>
       <c r="C17">
-        <v>7.048558603153753</v>
+        <v>2.204308191097527</v>
       </c>
       <c r="D17">
-        <v>1.237133723246682</v>
+        <v>0.3868910160462431</v>
       </c>
       <c r="E17">
-        <v>6.241789014934056</v>
+        <v>1.95200571171609</v>
       </c>
       <c r="F17">
-        <v>6.305153282958171</v>
+        <v>1.971821731258861</v>
       </c>
       <c r="G17">
-        <v>46.88531589154725</v>
+        <v>14.66252771392023</v>
       </c>
       <c r="I17">
-        <v>534.2068388409311</v>
+        <v>167.0634489823925</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>272.2286430452372</v>
+        <v>85.1345447347899</v>
       </c>
       <c r="C18">
-        <v>5.126224438657275</v>
+        <v>1.603133229889111</v>
       </c>
       <c r="D18">
-        <v>1.237133723246682</v>
+        <v>0.3868910160462431</v>
       </c>
       <c r="E18">
-        <v>4.161192676622703</v>
+        <v>1.30133714114406</v>
       </c>
       <c r="F18">
-        <v>4.921095245235647</v>
+        <v>1.538982814641061</v>
       </c>
       <c r="G18">
-        <v>43.95498364832557</v>
+        <v>13.74611973180021</v>
       </c>
       <c r="H18">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I18">
-        <v>332.6015802872284</v>
+        <v>104.0150801145473</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>208.7967262191626</v>
+        <v>65.29736926260586</v>
       </c>
       <c r="C19">
-        <v>7.262151288097806</v>
+        <v>2.271105409009574</v>
       </c>
       <c r="D19">
-        <v>9.897069785973457</v>
+        <v>3.095128128369945</v>
       </c>
       <c r="E19">
-        <v>1.040298169155676</v>
+        <v>0.3253342852860149</v>
       </c>
       <c r="F19">
-        <v>3.229468754685894</v>
+        <v>1.009957472108197</v>
       </c>
       <c r="G19">
-        <v>58.6066448644341</v>
+        <v>18.32815964240028</v>
       </c>
       <c r="I19">
-        <v>288.8323590815095</v>
+        <v>90.32705419977988</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>259.0136603731384</v>
+        <v>81.00179984475153</v>
       </c>
       <c r="C20">
-        <v>3.844668328992956</v>
+        <v>1.202349922416833</v>
       </c>
       <c r="D20">
-        <v>7.422802339480095</v>
+        <v>2.321346096277458</v>
       </c>
       <c r="E20">
-        <v>9.362683522401085</v>
+        <v>2.928008567574133</v>
       </c>
       <c r="F20">
-        <v>3.998389886753964</v>
+        <v>1.250423536895862</v>
       </c>
       <c r="G20">
-        <v>49.81564813476897</v>
+        <v>15.57893569604023</v>
       </c>
       <c r="H20">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I20">
-        <v>334.4301600954387</v>
+        <v>104.5869351101928</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>381.9129992236583</v>
+        <v>119.4363273221082</v>
       </c>
       <c r="C21">
-        <v>1.067963424720265</v>
+        <v>0.3339860895602315</v>
       </c>
       <c r="D21">
-        <v>16.08273840220687</v>
+        <v>5.029583208601158</v>
       </c>
       <c r="E21">
-        <v>5.20149084577838</v>
+        <v>1.626671426430074</v>
       </c>
       <c r="F21">
-        <v>7.381642867853471</v>
+        <v>2.308474221961591</v>
       </c>
       <c r="G21">
-        <v>84.97963505342942</v>
+        <v>26.5758314814804</v>
       </c>
       <c r="H21">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I21">
-        <v>497.59877732755</v>
+        <v>155.6149451963784</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>1012.267672682776</v>
+        <v>316.5682585769372</v>
       </c>
       <c r="C22">
-        <v>2.135926849440531</v>
+        <v>0.6679721791204629</v>
       </c>
       <c r="D22">
-        <v>32.16547680441375</v>
+        <v>10.05916641720232</v>
       </c>
       <c r="E22">
-        <v>37.45073408960434</v>
+        <v>11.71203427029653</v>
       </c>
       <c r="F22">
-        <v>15.83977532060224</v>
+        <v>4.953600934625918</v>
       </c>
       <c r="G22">
-        <v>131.8649509449768</v>
+        <v>41.23835919540063</v>
       </c>
       <c r="H22">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I22">
-        <v>1233.66915171162</v>
+        <v>385.8075344660566</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1661.123321882832</v>
+        <v>519.4860326778199</v>
       </c>
       <c r="C23">
-        <v>4.699039068769168</v>
+        <v>1.469538794065018</v>
       </c>
       <c r="D23">
-        <v>64.3309536088275</v>
+        <v>20.11833283440463</v>
       </c>
       <c r="E23">
-        <v>91.54623888569951</v>
+        <v>28.6294171051693</v>
       </c>
       <c r="F23">
-        <v>27.98872920727775</v>
+        <v>8.752964758271037</v>
       </c>
       <c r="G23">
-        <v>175.8199345933023</v>
+        <v>54.98447892720084</v>
       </c>
       <c r="H23">
-        <v>12.63999762874217</v>
+        <v>3.952928801077588</v>
       </c>
       <c r="I23">
-        <v>2038.148214875451</v>
+        <v>637.3936938980083</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>2792.325838614497</v>
+        <v>873.2489952651023</v>
       </c>
       <c r="C24">
-        <v>4.699039068769168</v>
+        <v>1.469538794065018</v>
       </c>
       <c r="D24">
-        <v>105.156366475968</v>
+        <v>32.88573636393067</v>
       </c>
       <c r="E24">
-        <v>115.47309677628</v>
+        <v>36.11210566674766</v>
       </c>
       <c r="F24">
-        <v>35.21658784871761</v>
+        <v>11.0133457672751</v>
       </c>
       <c r="G24">
-        <v>334.0578757272743</v>
+        <v>104.4705099616816</v>
       </c>
       <c r="H24">
-        <v>25.27999525748434</v>
+        <v>7.905857602155177</v>
       </c>
       <c r="I24">
-        <v>3412.20879976899</v>
+        <v>1067.106089420957</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>3211.240789320032</v>
+        <v>1004.257008279318</v>
       </c>
       <c r="C25">
-        <v>4.271853698881062</v>
+        <v>1.335944358240926</v>
       </c>
       <c r="D25">
-        <v>96.49643041324123</v>
+        <v>30.17749925160696</v>
       </c>
       <c r="E25">
-        <v>64.49848648765192</v>
+        <v>20.17072568773293</v>
       </c>
       <c r="F25">
-        <v>29.21900301858666</v>
+        <v>9.137710461931304</v>
       </c>
       <c r="G25">
-        <v>193.4019280526325</v>
+        <v>60.48292681992091</v>
       </c>
       <c r="H25">
-        <v>13.61230513864542</v>
+        <v>4.257000247314326</v>
       </c>
       <c r="I25">
-        <v>3612.740796129671</v>
+        <v>1129.818815106065</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2596.744095067433</v>
+        <v>812.084370892535</v>
       </c>
       <c r="C26">
-        <v>5.980595178433489</v>
+        <v>1.870322101537296</v>
       </c>
       <c r="D26">
-        <v>112.5791688154481</v>
+        <v>35.20708246020811</v>
       </c>
       <c r="E26">
-        <v>55.13580296525083</v>
+        <v>17.24271712015879</v>
       </c>
       <c r="F26">
-        <v>39.5225461882988</v>
+        <v>12.35995573008602</v>
       </c>
       <c r="G26">
-        <v>477.644155645138</v>
+        <v>149.3745010855623</v>
       </c>
       <c r="H26">
-        <v>14.58461264854866</v>
+        <v>4.561071693551064</v>
       </c>
       <c r="I26">
-        <v>3302.190976508551</v>
+        <v>1032.700021083638</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2233.332071584714</v>
+        <v>698.4338864164804</v>
       </c>
       <c r="C27">
-        <v>11.74759767192292</v>
+        <v>3.673846985162545</v>
       </c>
       <c r="D27">
-        <v>101.444965306228</v>
+        <v>31.72506331579192</v>
       </c>
       <c r="E27">
-        <v>42.6522249353827</v>
+        <v>13.33870569672661</v>
       </c>
       <c r="F27">
-        <v>46.2890521504978</v>
+        <v>14.47605710021749</v>
       </c>
       <c r="G27">
-        <v>430.7588397535905</v>
+        <v>134.7119733716421</v>
       </c>
       <c r="H27">
-        <v>21.39076521787137</v>
+        <v>6.689571817208226</v>
       </c>
       <c r="I27">
-        <v>2887.615516620207</v>
+        <v>903.0491047032293</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2352.266915633604</v>
+        <v>735.6285904268254</v>
       </c>
       <c r="C28">
-        <v>10.89322693214671</v>
+        <v>3.40665811351436</v>
       </c>
       <c r="D28">
-        <v>96.49643041324123</v>
+        <v>30.17749925160696</v>
       </c>
       <c r="E28">
-        <v>60.33729381102922</v>
+        <v>18.86938854658887</v>
       </c>
       <c r="F28">
-        <v>38.13848815057626</v>
+        <v>11.92711681346823</v>
       </c>
       <c r="G28">
-        <v>501.0868135909114</v>
+        <v>156.7057649425223</v>
       </c>
       <c r="H28">
-        <v>22.36307272777461</v>
+        <v>6.993643263444965</v>
       </c>
       <c r="I28">
-        <v>3081.582241259283</v>
+        <v>963.7086613579712</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2344.337926030345</v>
+        <v>733.1489434928022</v>
       </c>
       <c r="C29">
-        <v>10.0388561923705</v>
+        <v>3.139469241866175</v>
       </c>
       <c r="D29">
-        <v>81.65082573428101</v>
+        <v>25.53480705905205</v>
       </c>
       <c r="E29">
-        <v>40.57162859707137</v>
+        <v>12.68803712615458</v>
       </c>
       <c r="F29">
-        <v>34.90901939589038</v>
+        <v>10.91715934136003</v>
       </c>
       <c r="G29">
-        <v>375.082527132378</v>
+        <v>117.3002217113618</v>
       </c>
       <c r="H29">
-        <v>13.61230513864542</v>
+        <v>4.257000247314326</v>
       </c>
       <c r="I29">
-        <v>2900.203088220981</v>
+        <v>906.9856382199112</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2480.452247552963</v>
+        <v>775.7162158601974</v>
       </c>
       <c r="C30">
-        <v>10.4660415622586</v>
+        <v>3.273063677690268</v>
       </c>
       <c r="D30">
-        <v>79.17655828778766</v>
+        <v>24.76102502695956</v>
       </c>
       <c r="E30">
-        <v>47.85371578116111</v>
+        <v>14.96537712315668</v>
       </c>
       <c r="F30">
-        <v>43.52093607505277</v>
+        <v>13.61037926698189</v>
       </c>
       <c r="G30">
-        <v>310.6152177815007</v>
+        <v>97.13924610472147</v>
       </c>
       <c r="H30">
-        <v>20.41845770796812</v>
+        <v>6.385500370971489</v>
       </c>
       <c r="I30">
-        <v>2992.503174748692</v>
+        <v>935.8508074306789</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>2391.9118636499</v>
+        <v>748.0268250969408</v>
       </c>
       <c r="C31">
-        <v>8.330114712818071</v>
+        <v>2.605091498569805</v>
       </c>
       <c r="D31">
-        <v>112.5791688154481</v>
+        <v>35.20708246020811</v>
       </c>
       <c r="E31">
-        <v>43.6925231045384</v>
+        <v>13.66403998201262</v>
       </c>
       <c r="F31">
-        <v>41.21417267884856</v>
+        <v>12.88898107261889</v>
       </c>
       <c r="G31">
-        <v>295.9635565653921</v>
+        <v>92.55720619412139</v>
       </c>
       <c r="H31">
-        <v>23.33538023767785</v>
+        <v>7.297714709681701</v>
       </c>
       <c r="I31">
-        <v>2917.026779764623</v>
+        <v>912.2469410141532</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2533.312178241359</v>
+        <v>792.2471954203506</v>
       </c>
       <c r="C32">
-        <v>9.611670822482392</v>
+        <v>3.005874806042083</v>
       </c>
       <c r="D32">
-        <v>111.3420350922014</v>
+        <v>34.8201914441619</v>
       </c>
       <c r="E32">
-        <v>45.77311944284975</v>
+        <v>14.31470855258465</v>
       </c>
       <c r="F32">
-        <v>40.13768309395326</v>
+        <v>12.55232858191616</v>
       </c>
       <c r="G32">
-        <v>293.0332243221706</v>
+        <v>91.64079821200143</v>
       </c>
       <c r="H32">
-        <v>13.61230513864542</v>
+        <v>4.257000247314326</v>
       </c>
       <c r="I32">
-        <v>3046.822216153661</v>
+        <v>952.8380972643712</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>2944.298139343634</v>
+        <v>920.7755615005429</v>
       </c>
       <c r="C33">
-        <v>8.757300082706179</v>
+        <v>2.738685934393897</v>
       </c>
       <c r="D33">
-        <v>139.7961107268751</v>
+        <v>43.71868481322543</v>
       </c>
       <c r="E33">
-        <v>43.6925231045384</v>
+        <v>13.66403998201262</v>
       </c>
       <c r="F33">
-        <v>39.98389886753963</v>
+        <v>12.50423536895862</v>
       </c>
       <c r="G33">
-        <v>228.565914971293</v>
+        <v>71.47982260536109</v>
       </c>
       <c r="H33">
-        <v>17.50153517825839</v>
+        <v>5.473286032261277</v>
       </c>
       <c r="I33">
-        <v>3422.595422274845</v>
+        <v>1070.354316236756</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>3334.140128170552</v>
+        <v>1042.691535756674</v>
       </c>
       <c r="C34">
-        <v>8.330114712818071</v>
+        <v>2.605091498569805</v>
       </c>
       <c r="D34">
-        <v>96.49643041324123</v>
+        <v>30.17749925160696</v>
       </c>
       <c r="E34">
-        <v>73.861170010053</v>
+        <v>23.09873425530706</v>
       </c>
       <c r="F34">
-        <v>27.06602384879606</v>
+        <v>8.464405480525839</v>
       </c>
       <c r="G34">
-        <v>126.0042864585333</v>
+        <v>39.4055432311606</v>
       </c>
       <c r="H34">
-        <v>28.19691778719408</v>
+        <v>8.818071940865391</v>
       </c>
       <c r="I34">
-        <v>3694.095071401188</v>
+        <v>1155.26088141471</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>3360.570093514749</v>
+        <v>1050.957025536751</v>
       </c>
       <c r="C35">
-        <v>8.116522027874021</v>
+        <v>2.538294280657759</v>
       </c>
       <c r="D35">
-        <v>85.3622269040211</v>
+        <v>26.69548010719078</v>
       </c>
       <c r="E35">
-        <v>73.861170010053</v>
+        <v>23.09873425530706</v>
       </c>
       <c r="F35">
-        <v>21.9911443771468</v>
+        <v>6.877329452927246</v>
       </c>
       <c r="G35">
-        <v>26.37299018899533</v>
+        <v>8.247671839080127</v>
       </c>
       <c r="H35">
-        <v>11.66769011883893</v>
+        <v>3.64885735484085</v>
       </c>
       <c r="I35">
-        <v>3587.941837141677</v>
+        <v>1122.063392826755</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2525.3831886381</v>
+        <v>789.7675484863278</v>
       </c>
       <c r="C36">
-        <v>3.844668328992956</v>
+        <v>1.202349922416833</v>
       </c>
       <c r="D36">
-        <v>60.61955243908744</v>
+        <v>18.95765978626591</v>
       </c>
       <c r="E36">
-        <v>67.61938099511895</v>
+        <v>21.14672854359096</v>
       </c>
       <c r="F36">
-        <v>14.91706996212056</v>
+        <v>4.665041656880718</v>
       </c>
       <c r="G36">
-        <v>52.74598037799067</v>
+        <v>16.49534367816025</v>
       </c>
       <c r="H36">
-        <v>2.916922529709732</v>
+        <v>0.9122143387102126</v>
       </c>
       <c r="I36">
-        <v>2728.04676327112</v>
+        <v>853.1468864123526</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>2066.823289916268</v>
+        <v>646.3613008019973</v>
       </c>
       <c r="C37">
-        <v>5.767002493489435</v>
+        <v>1.80352488362525</v>
       </c>
       <c r="D37">
-        <v>40.82541286714051</v>
+        <v>12.76740352952602</v>
       </c>
       <c r="E37">
-        <v>75.94176634836435</v>
+        <v>23.74940282587909</v>
       </c>
       <c r="F37">
-        <v>9.073269358403223</v>
+        <v>2.837499564494458</v>
       </c>
       <c r="G37">
-        <v>49.81564813476897</v>
+        <v>15.57893569604023</v>
       </c>
       <c r="H37">
-        <v>2.916922529709732</v>
+        <v>0.9122143387102126</v>
       </c>
       <c r="I37">
-        <v>2251.163311648144</v>
+        <v>704.0102816402728</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1511.794017688115</v>
+        <v>472.7860154203867</v>
       </c>
       <c r="C38">
-        <v>3.203890274160797</v>
+        <v>1.001958268680694</v>
       </c>
       <c r="D38">
-        <v>34.63974425090709</v>
+        <v>10.83294844929481</v>
       </c>
       <c r="E38">
-        <v>57.21639930356218</v>
+        <v>17.89338569073082</v>
       </c>
       <c r="F38">
-        <v>8.150563999921545</v>
+        <v>2.548940286749259</v>
       </c>
       <c r="G38">
-        <v>26.37299018899533</v>
+        <v>8.247671839080127</v>
       </c>
       <c r="H38">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I38">
-        <v>1643.322220725468</v>
+        <v>513.9190628473958</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>1062.484606836751</v>
+        <v>332.2726891590829</v>
       </c>
       <c r="C39">
-        <v>3.844668328992956</v>
+        <v>1.202349922416833</v>
       </c>
       <c r="D39">
-        <v>17.31987212545354</v>
+        <v>5.416474224647403</v>
       </c>
       <c r="E39">
-        <v>29.12834873635893</v>
+        <v>9.109359988008418</v>
       </c>
       <c r="F39">
-        <v>4.459742565994806</v>
+        <v>1.394703175768461</v>
       </c>
       <c r="G39">
-        <v>55.67631262121238</v>
+        <v>17.41175166028026</v>
       </c>
       <c r="H39">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I39">
-        <v>1174.85816623457</v>
+        <v>367.4154710226778</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>632.9976699935374</v>
+        <v>197.9584802328366</v>
       </c>
       <c r="C40">
-        <v>4.485446383825116</v>
+        <v>1.402741576152972</v>
       </c>
       <c r="D40">
-        <v>14.84560467896019</v>
+        <v>4.642692192554915</v>
       </c>
       <c r="E40">
-        <v>12.48357802986811</v>
+        <v>3.904011423432179</v>
       </c>
       <c r="F40">
-        <v>3.998389886753964</v>
+        <v>1.250423536895862</v>
       </c>
       <c r="G40">
-        <v>35.16398691866046</v>
+        <v>10.99689578544016</v>
       </c>
       <c r="H40">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I40">
-        <v>705.9192909114118</v>
+        <v>220.7633876397862</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>466.4888883250912</v>
+        <v>145.8858946183536</v>
       </c>
       <c r="C41">
-        <v>7.048558603153753</v>
+        <v>2.204308191097527</v>
       </c>
       <c r="D41">
-        <v>1.237133723246682</v>
+        <v>0.3868910160462431</v>
       </c>
       <c r="E41">
-        <v>6.241789014934056</v>
+        <v>1.95200571171609</v>
       </c>
       <c r="F41">
-        <v>6.305153282958171</v>
+        <v>1.971821731258861</v>
       </c>
       <c r="G41">
-        <v>46.88531589154725</v>
+        <v>14.66252771392023</v>
       </c>
       <c r="I41">
-        <v>534.2068388409311</v>
+        <v>167.0634489823925</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>272.2286430452372</v>
+        <v>85.1345447347899</v>
       </c>
       <c r="C42">
-        <v>5.126224438657275</v>
+        <v>1.603133229889111</v>
       </c>
       <c r="D42">
-        <v>1.237133723246682</v>
+        <v>0.3868910160462431</v>
       </c>
       <c r="E42">
-        <v>4.161192676622703</v>
+        <v>1.30133714114406</v>
       </c>
       <c r="F42">
-        <v>4.921095245235647</v>
+        <v>1.538982814641061</v>
       </c>
       <c r="G42">
-        <v>43.95498364832557</v>
+        <v>13.74611973180021</v>
       </c>
       <c r="H42">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I42">
-        <v>332.6015802872284</v>
+        <v>104.0150801145473</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>208.7967262191626</v>
+        <v>65.29736926260586</v>
       </c>
       <c r="C43">
-        <v>7.262151288097806</v>
+        <v>2.271105409009574</v>
       </c>
       <c r="D43">
-        <v>9.897069785973457</v>
+        <v>3.095128128369945</v>
       </c>
       <c r="E43">
-        <v>1.040298169155676</v>
+        <v>0.3253342852860149</v>
       </c>
       <c r="F43">
-        <v>3.229468754685894</v>
+        <v>1.009957472108197</v>
       </c>
       <c r="G43">
-        <v>58.6066448644341</v>
+        <v>18.32815964240028</v>
       </c>
       <c r="I43">
-        <v>288.8323590815095</v>
+        <v>90.32705419977988</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>259.0136603731384</v>
+        <v>81.00179984475153</v>
       </c>
       <c r="C44">
-        <v>3.844668328992956</v>
+        <v>1.202349922416833</v>
       </c>
       <c r="D44">
-        <v>7.422802339480095</v>
+        <v>2.321346096277458</v>
       </c>
       <c r="E44">
-        <v>9.362683522401085</v>
+        <v>2.928008567574133</v>
       </c>
       <c r="F44">
-        <v>3.998389886753964</v>
+        <v>1.250423536895862</v>
       </c>
       <c r="G44">
-        <v>49.81564813476897</v>
+        <v>15.57893569604023</v>
       </c>
       <c r="H44">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I44">
-        <v>334.4301600954387</v>
+        <v>104.5869351101928</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>381.9129992236583</v>
+        <v>119.4363273221082</v>
       </c>
       <c r="C45">
-        <v>1.067963424720265</v>
+        <v>0.3339860895602315</v>
       </c>
       <c r="D45">
-        <v>16.08273840220687</v>
+        <v>5.029583208601158</v>
       </c>
       <c r="E45">
-        <v>5.20149084577838</v>
+        <v>1.626671426430074</v>
       </c>
       <c r="F45">
-        <v>7.381642867853471</v>
+        <v>2.308474221961591</v>
       </c>
       <c r="G45">
-        <v>84.97963505342942</v>
+        <v>26.5758314814804</v>
       </c>
       <c r="H45">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I45">
-        <v>497.59877732755</v>
+        <v>155.6149451963784</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>1012.267672682776</v>
+        <v>316.5682585769372</v>
       </c>
       <c r="C46">
-        <v>2.135926849440531</v>
+        <v>0.6679721791204629</v>
       </c>
       <c r="D46">
-        <v>32.16547680441375</v>
+        <v>10.05916641720232</v>
       </c>
       <c r="E46">
-        <v>37.45073408960434</v>
+        <v>11.71203427029653</v>
       </c>
       <c r="F46">
-        <v>15.83977532060224</v>
+        <v>4.953600934625918</v>
       </c>
       <c r="G46">
-        <v>131.8649509449768</v>
+        <v>41.23835919540063</v>
       </c>
       <c r="H46">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I46">
-        <v>1233.66915171162</v>
+        <v>385.8075344660566</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1661.123321882832</v>
+        <v>519.4860326778199</v>
       </c>
       <c r="C47">
-        <v>4.699039068769168</v>
+        <v>1.469538794065018</v>
       </c>
       <c r="D47">
-        <v>64.3309536088275</v>
+        <v>20.11833283440463</v>
       </c>
       <c r="E47">
-        <v>91.54623888569951</v>
+        <v>28.6294171051693</v>
       </c>
       <c r="F47">
-        <v>27.98872920727775</v>
+        <v>8.752964758271037</v>
       </c>
       <c r="G47">
-        <v>175.8199345933023</v>
+        <v>54.98447892720084</v>
       </c>
       <c r="H47">
-        <v>12.63999762874217</v>
+        <v>3.952928801077588</v>
       </c>
       <c r="I47">
-        <v>2038.148214875451</v>
+        <v>637.3936938980083</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>2792.325838614497</v>
+        <v>873.2489952651023</v>
       </c>
       <c r="C48">
-        <v>4.699039068769168</v>
+        <v>1.469538794065018</v>
       </c>
       <c r="D48">
-        <v>105.156366475968</v>
+        <v>32.88573636393067</v>
       </c>
       <c r="E48">
-        <v>115.47309677628</v>
+        <v>36.11210566674766</v>
       </c>
       <c r="F48">
-        <v>35.21658784871761</v>
+        <v>11.0133457672751</v>
       </c>
       <c r="G48">
-        <v>334.0578757272743</v>
+        <v>104.4705099616816</v>
       </c>
       <c r="H48">
-        <v>25.27999525748434</v>
+        <v>7.905857602155177</v>
       </c>
       <c r="I48">
-        <v>3412.20879976899</v>
+        <v>1067.106089420957</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>3211.240789320032</v>
+        <v>1004.257008279318</v>
       </c>
       <c r="C49">
-        <v>4.271853698881062</v>
+        <v>1.335944358240926</v>
       </c>
       <c r="D49">
-        <v>96.49643041324123</v>
+        <v>30.17749925160696</v>
       </c>
       <c r="E49">
-        <v>64.49848648765192</v>
+        <v>20.17072568773293</v>
       </c>
       <c r="F49">
-        <v>29.21900301858666</v>
+        <v>9.137710461931304</v>
       </c>
       <c r="G49">
-        <v>193.4019280526325</v>
+        <v>60.48292681992091</v>
       </c>
       <c r="H49">
-        <v>13.61230513864542</v>
+        <v>4.257000247314326</v>
       </c>
       <c r="I49">
-        <v>3612.740796129671</v>
+        <v>1129.818815106065</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_CO.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>812.084370892535</v>
+        <v>510.8227788165453</v>
       </c>
       <c r="C2">
-        <v>1.870322101537296</v>
+        <v>5.980595178433489</v>
       </c>
       <c r="D2">
-        <v>35.20708246020811</v>
+        <v>110.6192262718228</v>
       </c>
       <c r="E2">
-        <v>17.24271712015879</v>
+        <v>55.13580296525083</v>
       </c>
       <c r="F2">
-        <v>12.35995573008602</v>
+        <v>35.47991294623215</v>
       </c>
       <c r="G2">
-        <v>149.3745010855623</v>
+        <v>474.6777748916013</v>
       </c>
       <c r="H2">
-        <v>4.561071693551064</v>
+        <v>14.58461264854866</v>
       </c>
       <c r="I2">
-        <v>1032.700021083638</v>
+        <v>1207.300703718435</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>707.1126506855609</v>
+        <v>444.7927605878418</v>
       </c>
       <c r="C3">
-        <v>4.275021946370962</v>
+        <v>13.6699318364194</v>
       </c>
       <c r="D3">
-        <v>17.41009572208095</v>
+        <v>54.70181518936295</v>
       </c>
       <c r="E3">
-        <v>12.36270284086857</v>
+        <v>39.5313304279157</v>
       </c>
       <c r="F3">
-        <v>14.76461637796269</v>
+        <v>42.38261974511001</v>
       </c>
       <c r="G3">
-        <v>120.0494456577218</v>
+        <v>381.4895000662563</v>
       </c>
       <c r="H3">
-        <v>3.952928801077588</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I3">
-        <v>879.9274620316437</v>
+        <v>989.2079554816484</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>755.0524914100056</v>
+        <v>474.9482019836275</v>
       </c>
       <c r="C4">
-        <v>4.14142751054687</v>
+        <v>13.24274646653129</v>
       </c>
       <c r="D4">
-        <v>30.5643902676532</v>
+        <v>96.03207555465939</v>
       </c>
       <c r="E4">
-        <v>13.33870569672661</v>
+        <v>42.6522249353827</v>
       </c>
       <c r="F4">
-        <v>12.26376930417096</v>
+        <v>35.20380467427703</v>
       </c>
       <c r="G4">
-        <v>129.213525478922</v>
+        <v>410.6108359491766</v>
       </c>
       <c r="H4">
-        <v>4.865143139787801</v>
+        <v>15.5569201584519</v>
       </c>
       <c r="I4">
-        <v>949.439452807813</v>
+        <v>1088.246809722106</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>696.3675139714612</v>
+        <v>438.0337823439588</v>
       </c>
       <c r="C5">
-        <v>2.87228037021799</v>
+        <v>9.184485452594283</v>
       </c>
       <c r="D5">
-        <v>23.98724299486707</v>
+        <v>75.36694537201119</v>
       </c>
       <c r="E5">
-        <v>13.66403998201262</v>
+        <v>43.6925231045384</v>
       </c>
       <c r="F5">
-        <v>10.34004078586963</v>
+        <v>29.68163923517475</v>
       </c>
       <c r="G5">
-        <v>122.7986696040818</v>
+        <v>390.2259008311324</v>
       </c>
       <c r="H5">
-        <v>5.473286032261277</v>
+        <v>17.50153517825839</v>
       </c>
       <c r="I5">
-        <v>875.5030737407716</v>
+        <v>1003.686811517668</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>719.9241598446794</v>
+        <v>452.851542340164</v>
       </c>
       <c r="C6">
-        <v>3.273063677690268</v>
+        <v>10.4660415622586</v>
       </c>
       <c r="D6">
-        <v>36.75464652439307</v>
+        <v>115.4816098442107</v>
       </c>
       <c r="E6">
-        <v>13.66403998201262</v>
+        <v>43.6925231045384</v>
       </c>
       <c r="F6">
-        <v>12.55232858191616</v>
+        <v>36.03212949014235</v>
       </c>
       <c r="G6">
-        <v>108.1361418901616</v>
+        <v>343.6317634184597</v>
       </c>
       <c r="H6">
-        <v>5.169214586024539</v>
+        <v>16.52922766835515</v>
       </c>
       <c r="I6">
-        <v>899.4735950868776</v>
+        <v>1018.684837428129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>741.8277077618829</v>
+        <v>466.6294595296176</v>
       </c>
       <c r="C7">
-        <v>3.072672023954129</v>
+        <v>9.825263507426445</v>
       </c>
       <c r="D7">
-        <v>36.36775550834683</v>
+        <v>114.2660139511137</v>
       </c>
       <c r="E7">
-        <v>11.38669998501052</v>
+        <v>36.41043592044867</v>
       </c>
       <c r="F7">
-        <v>12.98516749853396</v>
+        <v>37.27461671394039</v>
       </c>
       <c r="G7">
-        <v>125.5478935504419</v>
+        <v>398.9623015960086</v>
       </c>
       <c r="H7">
-        <v>6.385500370971489</v>
+        <v>20.41845770796812</v>
       </c>
       <c r="I7">
-        <v>937.5733966991419</v>
+        <v>1083.786548926524</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>786.8746270633006</v>
+        <v>494.9651760135889</v>
       </c>
       <c r="C8">
-        <v>3.206266459778222</v>
+        <v>10.25244887731455</v>
       </c>
       <c r="D8">
-        <v>37.14153754043932</v>
+        <v>116.6972057373076</v>
       </c>
       <c r="E8">
-        <v>9.760028558580446</v>
+        <v>31.20894507467028</v>
       </c>
       <c r="F8">
-        <v>13.12944713740656</v>
+        <v>37.68877912187307</v>
       </c>
       <c r="G8">
-        <v>71.47982260536109</v>
+        <v>227.1464198867786</v>
       </c>
       <c r="H8">
-        <v>6.993643263444965</v>
+        <v>22.36307272777461</v>
       </c>
       <c r="I8">
-        <v>928.5853726283112</v>
+        <v>940.3220474393077</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>920.7755615005429</v>
+        <v>579.1924433604391</v>
       </c>
       <c r="C9">
-        <v>2.738685934393897</v>
+        <v>8.757300082706179</v>
       </c>
       <c r="D9">
-        <v>43.71868481322543</v>
+        <v>137.3623359199558</v>
       </c>
       <c r="E9">
-        <v>13.66403998201262</v>
+        <v>43.6925231045384</v>
       </c>
       <c r="F9">
-        <v>12.50423536895862</v>
+        <v>35.89407535416479</v>
       </c>
       <c r="G9">
-        <v>71.47982260536109</v>
+        <v>227.1464198867786</v>
       </c>
       <c r="H9">
-        <v>5.473286032261277</v>
+        <v>17.50153517825839</v>
       </c>
       <c r="I9">
-        <v>1070.354316236756</v>
+        <v>1049.546632886841</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1042.691535756674</v>
+        <v>655.880850358343</v>
       </c>
       <c r="C10">
-        <v>2.605091498569805</v>
+        <v>8.330114712818071</v>
       </c>
       <c r="D10">
-        <v>30.17749925160696</v>
+        <v>94.8164796615624</v>
       </c>
       <c r="E10">
-        <v>23.09873425530706</v>
+        <v>73.861170010053</v>
       </c>
       <c r="F10">
-        <v>8.464405480525839</v>
+        <v>24.29752793205003</v>
       </c>
       <c r="G10">
-        <v>39.4055432311606</v>
+        <v>125.2217442965574</v>
       </c>
       <c r="H10">
-        <v>8.818071940865391</v>
+        <v>28.19691778719408</v>
       </c>
       <c r="I10">
-        <v>1155.26088141471</v>
+        <v>1010.604804758578</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1050.957025536751</v>
+        <v>661.0800643920991</v>
       </c>
       <c r="C11">
-        <v>2.538294280657759</v>
+        <v>8.116522027874021</v>
       </c>
       <c r="D11">
-        <v>26.69548010719078</v>
+        <v>83.87611662368982</v>
       </c>
       <c r="E11">
-        <v>23.09873425530706</v>
+        <v>73.861170010053</v>
       </c>
       <c r="F11">
-        <v>6.877329452927246</v>
+        <v>19.74174144479065</v>
       </c>
       <c r="G11">
-        <v>8.247671839080127</v>
+        <v>26.20920229462829</v>
       </c>
       <c r="H11">
-        <v>3.64885735484085</v>
+        <v>11.66769011883893</v>
       </c>
       <c r="I11">
-        <v>1122.063392826755</v>
+        <v>884.5525069119738</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>789.7675484863278</v>
+        <v>496.7849009254036</v>
       </c>
       <c r="C12">
-        <v>1.202349922416833</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D12">
-        <v>18.95765978626591</v>
+        <v>59.56419876175075</v>
       </c>
       <c r="E12">
-        <v>21.14672854359096</v>
+        <v>67.61938099511895</v>
       </c>
       <c r="F12">
-        <v>4.665041656880718</v>
+        <v>13.39125118982303</v>
       </c>
       <c r="G12">
-        <v>16.49534367816025</v>
+        <v>52.41840458925657</v>
       </c>
       <c r="H12">
-        <v>0.9122143387102126</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I12">
-        <v>853.1468864123526</v>
+        <v>696.5397273200557</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>646.3613008019973</v>
+        <v>406.5785374397338</v>
       </c>
       <c r="C13">
-        <v>1.80352488362525</v>
+        <v>5.767002493489435</v>
       </c>
       <c r="D13">
-        <v>12.76740352952602</v>
+        <v>40.11466447219949</v>
       </c>
       <c r="E13">
-        <v>23.74940282587909</v>
+        <v>75.94176634836435</v>
       </c>
       <c r="F13">
-        <v>2.837499564494458</v>
+        <v>8.145194022675865</v>
       </c>
       <c r="G13">
-        <v>15.57893569604023</v>
+        <v>49.50627100096455</v>
       </c>
       <c r="H13">
-        <v>0.9122143387102126</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I13">
-        <v>704.0102816402728</v>
+        <v>588.9703583071372</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>472.7860154203867</v>
+        <v>297.395042730854</v>
       </c>
       <c r="C14">
-        <v>1.001958268680694</v>
+        <v>3.203890274160797</v>
       </c>
       <c r="D14">
-        <v>10.83294844929481</v>
+        <v>34.03668500671472</v>
       </c>
       <c r="E14">
-        <v>17.89338569073082</v>
+        <v>57.21639930356218</v>
       </c>
       <c r="F14">
-        <v>2.548940286749259</v>
+        <v>7.316869206810521</v>
       </c>
       <c r="G14">
-        <v>8.247671839080127</v>
+        <v>26.20920229462829</v>
       </c>
       <c r="H14">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I14">
-        <v>513.9190628473958</v>
+        <v>427.322703836537</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>332.2726891590829</v>
+        <v>209.0084041569987</v>
       </c>
       <c r="C15">
-        <v>1.202349922416833</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D15">
-        <v>5.416474224647403</v>
+        <v>17.01834250335736</v>
       </c>
       <c r="E15">
-        <v>9.109359988008418</v>
+        <v>29.12834873635893</v>
       </c>
       <c r="F15">
-        <v>1.394703175768461</v>
+        <v>4.003569943349152</v>
       </c>
       <c r="G15">
-        <v>17.41175166028026</v>
+        <v>55.33053817754863</v>
       </c>
       <c r="H15">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I15">
-        <v>367.4154710226778</v>
+        <v>320.2784868664122</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>197.9584802328366</v>
+        <v>124.5211761084607</v>
       </c>
       <c r="C16">
-        <v>1.402741576152972</v>
+        <v>4.485446383825116</v>
       </c>
       <c r="D16">
-        <v>4.642692192554915</v>
+        <v>14.58715071716346</v>
       </c>
       <c r="E16">
-        <v>3.904011423432179</v>
+        <v>12.48357802986811</v>
       </c>
       <c r="F16">
-        <v>1.250423536895862</v>
+        <v>3.589407535416482</v>
       </c>
       <c r="G16">
-        <v>10.99689578544016</v>
+        <v>34.9456030595044</v>
       </c>
       <c r="H16">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I16">
-        <v>220.7633876397862</v>
+        <v>196.5569768540447</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>145.8858946183536</v>
+        <v>91.76612769579671</v>
       </c>
       <c r="C17">
-        <v>2.204308191097527</v>
+        <v>7.048558603153753</v>
       </c>
       <c r="D17">
-        <v>0.3868910160462431</v>
+        <v>1.215595893096954</v>
       </c>
       <c r="E17">
-        <v>1.95200571171609</v>
+        <v>6.241789014934056</v>
       </c>
       <c r="F17">
-        <v>1.971821731258861</v>
+        <v>5.660219575079837</v>
       </c>
       <c r="G17">
-        <v>14.66252771392023</v>
+        <v>46.59413741267252</v>
       </c>
       <c r="I17">
-        <v>167.0634489823925</v>
+        <v>158.5264281947339</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>85.1345447347899</v>
+        <v>53.55190454768872</v>
       </c>
       <c r="C18">
-        <v>1.603133229889111</v>
+        <v>5.126224438657275</v>
       </c>
       <c r="D18">
-        <v>0.3868910160462431</v>
+        <v>1.215595893096954</v>
       </c>
       <c r="E18">
-        <v>1.30133714114406</v>
+        <v>4.161192676622703</v>
       </c>
       <c r="F18">
-        <v>1.538982814641061</v>
+        <v>4.417732351281822</v>
       </c>
       <c r="G18">
-        <v>13.74611973180021</v>
+        <v>43.68200382438049</v>
       </c>
       <c r="H18">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I18">
-        <v>104.0150801145473</v>
+        <v>113.1269612416312</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>65.29736926260586</v>
+        <v>41.07379086667386</v>
       </c>
       <c r="C19">
-        <v>2.271105409009574</v>
+        <v>7.262151288097806</v>
       </c>
       <c r="D19">
-        <v>3.095128128369945</v>
+        <v>9.724767144775633</v>
       </c>
       <c r="E19">
-        <v>0.3253342852860149</v>
+        <v>1.040298169155676</v>
       </c>
       <c r="F19">
-        <v>1.009957472108197</v>
+        <v>2.899136855528697</v>
       </c>
       <c r="G19">
-        <v>18.32815964240028</v>
+        <v>58.24267176584065</v>
       </c>
       <c r="I19">
-        <v>90.32705419977988</v>
+        <v>120.2428160900723</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>81.00179984475153</v>
+        <v>50.95229753081063</v>
       </c>
       <c r="C20">
-        <v>1.202349922416833</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D20">
-        <v>2.321346096277458</v>
+        <v>7.293575358581728</v>
       </c>
       <c r="E20">
-        <v>2.928008567574133</v>
+        <v>9.362683522401085</v>
       </c>
       <c r="F20">
-        <v>1.250423536895862</v>
+        <v>3.589407535416482</v>
       </c>
       <c r="G20">
-        <v>15.57893569604023</v>
+        <v>49.50627100096455</v>
       </c>
       <c r="H20">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I20">
-        <v>104.5869351101928</v>
+        <v>125.5212107870707</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>119.4363273221082</v>
+        <v>75.12864278777691</v>
       </c>
       <c r="C21">
-        <v>0.3339860895602315</v>
+        <v>1.067963424720265</v>
       </c>
       <c r="D21">
-        <v>5.029583208601158</v>
+        <v>15.80274661026041</v>
       </c>
       <c r="E21">
-        <v>1.626671426430074</v>
+        <v>5.20149084577838</v>
       </c>
       <c r="F21">
-        <v>2.308474221961591</v>
+        <v>6.626598526922735</v>
       </c>
       <c r="G21">
-        <v>26.5758314814804</v>
+        <v>84.45187406046897</v>
       </c>
       <c r="H21">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I21">
-        <v>155.6149451963784</v>
+        <v>189.2516237658309</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>316.5682585769372</v>
+        <v>199.1298974928619</v>
       </c>
       <c r="C22">
-        <v>0.6679721791204629</v>
+        <v>2.135926849440531</v>
       </c>
       <c r="D22">
-        <v>10.05916641720232</v>
+        <v>31.60549322052082</v>
       </c>
       <c r="E22">
-        <v>11.71203427029653</v>
+        <v>37.45073408960434</v>
       </c>
       <c r="F22">
-        <v>4.953600934625918</v>
+        <v>14.21957600568837</v>
       </c>
       <c r="G22">
-        <v>41.23835919540063</v>
+        <v>131.0460114731414</v>
       </c>
       <c r="H22">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I22">
-        <v>385.8075344660566</v>
+        <v>417.5322541510639</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>519.4860326778199</v>
+        <v>326.7706020215763</v>
       </c>
       <c r="C23">
-        <v>1.469538794065018</v>
+        <v>4.699039068769168</v>
       </c>
       <c r="D23">
-        <v>20.11833283440463</v>
+        <v>63.21098644104163</v>
       </c>
       <c r="E23">
-        <v>28.6294171051693</v>
+        <v>91.54623888569951</v>
       </c>
       <c r="F23">
-        <v>8.752964758271037</v>
+        <v>25.12585274791537</v>
       </c>
       <c r="G23">
-        <v>54.98447892720084</v>
+        <v>174.7280152975219</v>
       </c>
       <c r="H23">
-        <v>3.952928801077588</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I23">
-        <v>637.3936938980083</v>
+        <v>698.7207320912661</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>873.2489952651023</v>
+        <v>549.2969626663411</v>
       </c>
       <c r="C24">
-        <v>1.469538794065018</v>
+        <v>4.699039068769168</v>
       </c>
       <c r="D24">
-        <v>32.88573636393067</v>
+        <v>103.3256509132411</v>
       </c>
       <c r="E24">
-        <v>36.11210566674766</v>
+        <v>115.47309677628</v>
       </c>
       <c r="F24">
-        <v>11.0133457672751</v>
+        <v>31.61439713886056</v>
       </c>
       <c r="G24">
-        <v>104.4705099616816</v>
+        <v>331.9832290652919</v>
       </c>
       <c r="H24">
-        <v>7.905857602155177</v>
+        <v>25.27999525748434</v>
       </c>
       <c r="I24">
-        <v>1067.106089420957</v>
+        <v>1161.672370886268</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1004.257008279318</v>
+        <v>631.7045051013766</v>
       </c>
       <c r="C25">
-        <v>1.335944358240926</v>
+        <v>4.271853698881062</v>
       </c>
       <c r="D25">
-        <v>30.17749925160696</v>
+        <v>94.8164796615624</v>
       </c>
       <c r="E25">
-        <v>20.17072568773293</v>
+        <v>64.49848648765192</v>
       </c>
       <c r="F25">
-        <v>9.137710461931304</v>
+        <v>26.23028583573582</v>
       </c>
       <c r="G25">
-        <v>60.48292681992091</v>
+        <v>192.2008168272741</v>
       </c>
       <c r="H25">
-        <v>4.257000247314326</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I25">
-        <v>1129.818815106065</v>
+        <v>1027.334732751127</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>812.084370892535</v>
+        <v>510.8227788165453</v>
       </c>
       <c r="C26">
-        <v>1.870322101537296</v>
+        <v>5.980595178433489</v>
       </c>
       <c r="D26">
-        <v>35.20708246020811</v>
+        <v>110.6192262718228</v>
       </c>
       <c r="E26">
-        <v>17.24271712015879</v>
+        <v>55.13580296525083</v>
       </c>
       <c r="F26">
-        <v>12.35995573008602</v>
+        <v>35.47991294623215</v>
       </c>
       <c r="G26">
-        <v>149.3745010855623</v>
+        <v>474.6777748916013</v>
       </c>
       <c r="H26">
-        <v>4.561071693551064</v>
+        <v>14.58461264854866</v>
       </c>
       <c r="I26">
-        <v>1032.700021083638</v>
+        <v>1207.300703718435</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>698.4338864164804</v>
+        <v>439.333585852398</v>
       </c>
       <c r="C27">
-        <v>3.673846985162545</v>
+        <v>11.74759767192292</v>
       </c>
       <c r="D27">
-        <v>31.72506331579192</v>
+        <v>99.67886323395024</v>
       </c>
       <c r="E27">
-        <v>13.33870569672661</v>
+        <v>42.6522249353827</v>
       </c>
       <c r="F27">
-        <v>14.47605710021749</v>
+        <v>41.55429492924466</v>
       </c>
       <c r="G27">
-        <v>134.7119733716421</v>
+        <v>428.0836374789287</v>
       </c>
       <c r="H27">
-        <v>6.689571817208226</v>
+        <v>21.39076521787137</v>
       </c>
       <c r="I27">
-        <v>903.0491047032293</v>
+        <v>1084.440969319699</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>735.6285904268254</v>
+        <v>462.7300490043007</v>
       </c>
       <c r="C28">
-        <v>3.40665811351436</v>
+        <v>10.89322693214671</v>
       </c>
       <c r="D28">
-        <v>30.17749925160696</v>
+        <v>94.8164796615624</v>
       </c>
       <c r="E28">
-        <v>18.86938854658887</v>
+        <v>60.33729381102922</v>
       </c>
       <c r="F28">
-        <v>11.92711681346823</v>
+        <v>34.23742572243414</v>
       </c>
       <c r="G28">
-        <v>156.7057649425223</v>
+        <v>497.9748435979376</v>
       </c>
       <c r="H28">
-        <v>6.993643263444965</v>
+        <v>22.36307272777461</v>
       </c>
       <c r="I28">
-        <v>963.7086613579712</v>
+        <v>1183.352391457185</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>733.1489434928022</v>
+        <v>461.1702847941739</v>
       </c>
       <c r="C29">
-        <v>3.139469241866175</v>
+        <v>10.0388561923705</v>
       </c>
       <c r="D29">
-        <v>25.53480705905205</v>
+        <v>80.22932894439897</v>
       </c>
       <c r="E29">
-        <v>12.68803712615458</v>
+        <v>40.57162859707137</v>
       </c>
       <c r="F29">
-        <v>10.91715934136003</v>
+        <v>31.33828886690544</v>
       </c>
       <c r="G29">
-        <v>117.3002217113618</v>
+        <v>372.7530993013802</v>
       </c>
       <c r="H29">
-        <v>4.257000247314326</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I29">
-        <v>906.9856382199112</v>
+        <v>1009.713791834946</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>775.7162158601974</v>
+        <v>487.946237068018</v>
       </c>
       <c r="C30">
-        <v>3.273063677690268</v>
+        <v>10.4660415622586</v>
       </c>
       <c r="D30">
-        <v>24.76102502695956</v>
+        <v>77.79813715820507</v>
       </c>
       <c r="E30">
-        <v>14.96537712315668</v>
+        <v>47.85371578116111</v>
       </c>
       <c r="F30">
-        <v>13.61037926698189</v>
+        <v>39.06932048164863</v>
       </c>
       <c r="G30">
-        <v>97.13924610472147</v>
+        <v>308.6861603589555</v>
       </c>
       <c r="H30">
-        <v>6.385500370971489</v>
+        <v>20.41845770796812</v>
       </c>
       <c r="I30">
-        <v>935.8508074306789</v>
+        <v>992.2380701182151</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>748.0268250969408</v>
+        <v>470.5288700549345</v>
       </c>
       <c r="C31">
-        <v>2.605091498569805</v>
+        <v>8.330114712818071</v>
       </c>
       <c r="D31">
-        <v>35.20708246020811</v>
+        <v>110.6192262718228</v>
       </c>
       <c r="E31">
-        <v>13.66403998201262</v>
+        <v>43.6925231045384</v>
       </c>
       <c r="F31">
-        <v>12.88898107261889</v>
+        <v>36.99850844198529</v>
       </c>
       <c r="G31">
-        <v>92.55720619412139</v>
+        <v>294.1254924174953</v>
       </c>
       <c r="H31">
-        <v>7.297714709681701</v>
+        <v>23.33538023767785</v>
       </c>
       <c r="I31">
-        <v>912.2469410141532</v>
+        <v>987.6301152412724</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>792.2471954203506</v>
+        <v>498.3446651355305</v>
       </c>
       <c r="C32">
-        <v>3.005874806042083</v>
+        <v>9.611670822482392</v>
       </c>
       <c r="D32">
-        <v>34.8201914441619</v>
+        <v>109.4036303787259</v>
       </c>
       <c r="E32">
-        <v>14.31470855258465</v>
+        <v>45.77311944284975</v>
       </c>
       <c r="F32">
-        <v>12.55232858191616</v>
+        <v>36.03212949014235</v>
       </c>
       <c r="G32">
-        <v>91.64079821200143</v>
+        <v>291.2133588292033</v>
       </c>
       <c r="H32">
-        <v>4.257000247314326</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I32">
-        <v>952.8380972643712</v>
+        <v>1003.99087923758</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>920.7755615005429</v>
+        <v>579.1924433604391</v>
       </c>
       <c r="C33">
-        <v>2.738685934393897</v>
+        <v>8.757300082706179</v>
       </c>
       <c r="D33">
-        <v>43.71868481322543</v>
+        <v>137.3623359199558</v>
       </c>
       <c r="E33">
-        <v>13.66403998201262</v>
+        <v>43.6925231045384</v>
       </c>
       <c r="F33">
-        <v>12.50423536895862</v>
+        <v>35.89407535416479</v>
       </c>
       <c r="G33">
-        <v>71.47982260536109</v>
+        <v>227.1464198867786</v>
       </c>
       <c r="H33">
-        <v>5.473286032261277</v>
+        <v>17.50153517825839</v>
       </c>
       <c r="I33">
-        <v>1070.354316236756</v>
+        <v>1049.546632886841</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1042.691535756674</v>
+        <v>655.880850358343</v>
       </c>
       <c r="C34">
-        <v>2.605091498569805</v>
+        <v>8.330114712818071</v>
       </c>
       <c r="D34">
-        <v>30.17749925160696</v>
+        <v>94.8164796615624</v>
       </c>
       <c r="E34">
-        <v>23.09873425530706</v>
+        <v>73.861170010053</v>
       </c>
       <c r="F34">
-        <v>8.464405480525839</v>
+        <v>24.29752793205003</v>
       </c>
       <c r="G34">
-        <v>39.4055432311606</v>
+        <v>125.2217442965574</v>
       </c>
       <c r="H34">
-        <v>8.818071940865391</v>
+        <v>28.19691778719408</v>
       </c>
       <c r="I34">
-        <v>1155.26088141471</v>
+        <v>1010.604804758578</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1050.957025536751</v>
+        <v>661.0800643920991</v>
       </c>
       <c r="C35">
-        <v>2.538294280657759</v>
+        <v>8.116522027874021</v>
       </c>
       <c r="D35">
-        <v>26.69548010719078</v>
+        <v>83.87611662368982</v>
       </c>
       <c r="E35">
-        <v>23.09873425530706</v>
+        <v>73.861170010053</v>
       </c>
       <c r="F35">
-        <v>6.877329452927246</v>
+        <v>19.74174144479065</v>
       </c>
       <c r="G35">
-        <v>8.247671839080127</v>
+        <v>26.20920229462829</v>
       </c>
       <c r="H35">
-        <v>3.64885735484085</v>
+        <v>11.66769011883893</v>
       </c>
       <c r="I35">
-        <v>1122.063392826755</v>
+        <v>884.5525069119738</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>789.7675484863278</v>
+        <v>496.7849009254036</v>
       </c>
       <c r="C36">
-        <v>1.202349922416833</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D36">
-        <v>18.95765978626591</v>
+        <v>59.56419876175075</v>
       </c>
       <c r="E36">
-        <v>21.14672854359096</v>
+        <v>67.61938099511895</v>
       </c>
       <c r="F36">
-        <v>4.665041656880718</v>
+        <v>13.39125118982303</v>
       </c>
       <c r="G36">
-        <v>16.49534367816025</v>
+        <v>52.41840458925657</v>
       </c>
       <c r="H36">
-        <v>0.9122143387102126</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I36">
-        <v>853.1468864123526</v>
+        <v>696.5397273200557</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>646.3613008019973</v>
+        <v>406.5785374397338</v>
       </c>
       <c r="C37">
-        <v>1.80352488362525</v>
+        <v>5.767002493489435</v>
       </c>
       <c r="D37">
-        <v>12.76740352952602</v>
+        <v>40.11466447219949</v>
       </c>
       <c r="E37">
-        <v>23.74940282587909</v>
+        <v>75.94176634836435</v>
       </c>
       <c r="F37">
-        <v>2.837499564494458</v>
+        <v>8.145194022675865</v>
       </c>
       <c r="G37">
-        <v>15.57893569604023</v>
+        <v>49.50627100096455</v>
       </c>
       <c r="H37">
-        <v>0.9122143387102126</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I37">
-        <v>704.0102816402728</v>
+        <v>588.9703583071372</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>472.7860154203867</v>
+        <v>297.395042730854</v>
       </c>
       <c r="C38">
-        <v>1.001958268680694</v>
+        <v>3.203890274160797</v>
       </c>
       <c r="D38">
-        <v>10.83294844929481</v>
+        <v>34.03668500671472</v>
       </c>
       <c r="E38">
-        <v>17.89338569073082</v>
+        <v>57.21639930356218</v>
       </c>
       <c r="F38">
-        <v>2.548940286749259</v>
+        <v>7.316869206810521</v>
       </c>
       <c r="G38">
-        <v>8.247671839080127</v>
+        <v>26.20920229462829</v>
       </c>
       <c r="H38">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I38">
-        <v>513.9190628473958</v>
+        <v>427.322703836537</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>332.2726891590829</v>
+        <v>209.0084041569987</v>
       </c>
       <c r="C39">
-        <v>1.202349922416833</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D39">
-        <v>5.416474224647403</v>
+        <v>17.01834250335736</v>
       </c>
       <c r="E39">
-        <v>9.109359988008418</v>
+        <v>29.12834873635893</v>
       </c>
       <c r="F39">
-        <v>1.394703175768461</v>
+        <v>4.003569943349152</v>
       </c>
       <c r="G39">
-        <v>17.41175166028026</v>
+        <v>55.33053817754863</v>
       </c>
       <c r="H39">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I39">
-        <v>367.4154710226778</v>
+        <v>320.2784868664122</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>197.9584802328366</v>
+        <v>124.5211761084607</v>
       </c>
       <c r="C40">
-        <v>1.402741576152972</v>
+        <v>4.485446383825116</v>
       </c>
       <c r="D40">
-        <v>4.642692192554915</v>
+        <v>14.58715071716346</v>
       </c>
       <c r="E40">
-        <v>3.904011423432179</v>
+        <v>12.48357802986811</v>
       </c>
       <c r="F40">
-        <v>1.250423536895862</v>
+        <v>3.589407535416482</v>
       </c>
       <c r="G40">
-        <v>10.99689578544016</v>
+        <v>34.9456030595044</v>
       </c>
       <c r="H40">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I40">
-        <v>220.7633876397862</v>
+        <v>196.5569768540447</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>145.8858946183536</v>
+        <v>91.76612769579671</v>
       </c>
       <c r="C41">
-        <v>2.204308191097527</v>
+        <v>7.048558603153753</v>
       </c>
       <c r="D41">
-        <v>0.3868910160462431</v>
+        <v>1.215595893096954</v>
       </c>
       <c r="E41">
-        <v>1.95200571171609</v>
+        <v>6.241789014934056</v>
       </c>
       <c r="F41">
-        <v>1.971821731258861</v>
+        <v>5.660219575079837</v>
       </c>
       <c r="G41">
-        <v>14.66252771392023</v>
+        <v>46.59413741267252</v>
       </c>
       <c r="I41">
-        <v>167.0634489823925</v>
+        <v>158.5264281947339</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>85.1345447347899</v>
+        <v>53.55190454768872</v>
       </c>
       <c r="C42">
-        <v>1.603133229889111</v>
+        <v>5.126224438657275</v>
       </c>
       <c r="D42">
-        <v>0.3868910160462431</v>
+        <v>1.215595893096954</v>
       </c>
       <c r="E42">
-        <v>1.30133714114406</v>
+        <v>4.161192676622703</v>
       </c>
       <c r="F42">
-        <v>1.538982814641061</v>
+        <v>4.417732351281822</v>
       </c>
       <c r="G42">
-        <v>13.74611973180021</v>
+        <v>43.68200382438049</v>
       </c>
       <c r="H42">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I42">
-        <v>104.0150801145473</v>
+        <v>113.1269612416312</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>65.29736926260586</v>
+        <v>41.07379086667386</v>
       </c>
       <c r="C43">
-        <v>2.271105409009574</v>
+        <v>7.262151288097806</v>
       </c>
       <c r="D43">
-        <v>3.095128128369945</v>
+        <v>9.724767144775633</v>
       </c>
       <c r="E43">
-        <v>0.3253342852860149</v>
+        <v>1.040298169155676</v>
       </c>
       <c r="F43">
-        <v>1.009957472108197</v>
+        <v>2.899136855528697</v>
       </c>
       <c r="G43">
-        <v>18.32815964240028</v>
+        <v>58.24267176584065</v>
       </c>
       <c r="I43">
-        <v>90.32705419977988</v>
+        <v>120.2428160900723</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>81.00179984475153</v>
+        <v>50.95229753081063</v>
       </c>
       <c r="C44">
-        <v>1.202349922416833</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D44">
-        <v>2.321346096277458</v>
+        <v>7.293575358581728</v>
       </c>
       <c r="E44">
-        <v>2.928008567574133</v>
+        <v>9.362683522401085</v>
       </c>
       <c r="F44">
-        <v>1.250423536895862</v>
+        <v>3.589407535416482</v>
       </c>
       <c r="G44">
-        <v>15.57893569604023</v>
+        <v>49.50627100096455</v>
       </c>
       <c r="H44">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I44">
-        <v>104.5869351101928</v>
+        <v>125.5212107870707</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>119.4363273221082</v>
+        <v>75.12864278777691</v>
       </c>
       <c r="C45">
-        <v>0.3339860895602315</v>
+        <v>1.067963424720265</v>
       </c>
       <c r="D45">
-        <v>5.029583208601158</v>
+        <v>15.80274661026041</v>
       </c>
       <c r="E45">
-        <v>1.626671426430074</v>
+        <v>5.20149084577838</v>
       </c>
       <c r="F45">
-        <v>2.308474221961591</v>
+        <v>6.626598526922735</v>
       </c>
       <c r="G45">
-        <v>26.5758314814804</v>
+        <v>84.45187406046897</v>
       </c>
       <c r="H45">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I45">
-        <v>155.6149451963784</v>
+        <v>189.2516237658309</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>316.5682585769372</v>
+        <v>199.1298974928619</v>
       </c>
       <c r="C46">
-        <v>0.6679721791204629</v>
+        <v>2.135926849440531</v>
       </c>
       <c r="D46">
-        <v>10.05916641720232</v>
+        <v>31.60549322052082</v>
       </c>
       <c r="E46">
-        <v>11.71203427029653</v>
+        <v>37.45073408960434</v>
       </c>
       <c r="F46">
-        <v>4.953600934625918</v>
+        <v>14.21957600568837</v>
       </c>
       <c r="G46">
-        <v>41.23835919540063</v>
+        <v>131.0460114731414</v>
       </c>
       <c r="H46">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I46">
-        <v>385.8075344660566</v>
+        <v>417.5322541510639</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>519.4860326778199</v>
+        <v>326.7706020215763</v>
       </c>
       <c r="C47">
-        <v>1.469538794065018</v>
+        <v>4.699039068769168</v>
       </c>
       <c r="D47">
-        <v>20.11833283440463</v>
+        <v>63.21098644104163</v>
       </c>
       <c r="E47">
-        <v>28.6294171051693</v>
+        <v>91.54623888569951</v>
       </c>
       <c r="F47">
-        <v>8.752964758271037</v>
+        <v>25.12585274791537</v>
       </c>
       <c r="G47">
-        <v>54.98447892720084</v>
+        <v>174.7280152975219</v>
       </c>
       <c r="H47">
-        <v>3.952928801077588</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I47">
-        <v>637.3936938980083</v>
+        <v>698.7207320912661</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>873.2489952651023</v>
+        <v>549.2969626663411</v>
       </c>
       <c r="C48">
-        <v>1.469538794065018</v>
+        <v>4.699039068769168</v>
       </c>
       <c r="D48">
-        <v>32.88573636393067</v>
+        <v>103.3256509132411</v>
       </c>
       <c r="E48">
-        <v>36.11210566674766</v>
+        <v>115.47309677628</v>
       </c>
       <c r="F48">
-        <v>11.0133457672751</v>
+        <v>31.61439713886056</v>
       </c>
       <c r="G48">
-        <v>104.4705099616816</v>
+        <v>331.9832290652919</v>
       </c>
       <c r="H48">
-        <v>7.905857602155177</v>
+        <v>25.27999525748434</v>
       </c>
       <c r="I48">
-        <v>1067.106089420957</v>
+        <v>1161.672370886268</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1004.257008279318</v>
+        <v>631.7045051013766</v>
       </c>
       <c r="C49">
-        <v>1.335944358240926</v>
+        <v>4.271853698881062</v>
       </c>
       <c r="D49">
-        <v>30.17749925160696</v>
+        <v>94.8164796615624</v>
       </c>
       <c r="E49">
-        <v>20.17072568773293</v>
+        <v>64.49848648765192</v>
       </c>
       <c r="F49">
-        <v>9.137710461931304</v>
+        <v>26.23028583573582</v>
       </c>
       <c r="G49">
-        <v>60.48292681992091</v>
+        <v>192.2008168272741</v>
       </c>
       <c r="H49">
-        <v>4.257000247314326</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I49">
-        <v>1129.818815106065</v>
+        <v>1027.334732751127</v>
       </c>
     </row>
   </sheetData>
